--- a/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_9_30.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_9_30.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2368777.345044882</v>
+        <v>2364519.082818407</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>10955577.07554858</v>
+        <v>10955577.07554859</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283188</v>
+        <v>416855.1052283185</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>9575802.677849876</v>
+        <v>9575802.677849874</v>
       </c>
     </row>
     <row r="11">
@@ -664,22 +664,22 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>253.7960494943385</v>
       </c>
       <c r="G2" t="n">
-        <v>412.9288914861689</v>
+        <v>12.92889148616885</v>
       </c>
       <c r="H2" t="n">
-        <v>315.1636514716173</v>
+        <v>315.1636514716171</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>118.9581905386865</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -706,19 +706,19 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0.7530123241028832</v>
+        <v>0.7530123241016327</v>
       </c>
       <c r="S2" t="n">
-        <v>154.9260532011785</v>
+        <v>154.9260532011781</v>
       </c>
       <c r="T2" t="n">
-        <v>191.751254670246</v>
+        <v>212.7043385723318</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -727,7 +727,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -755,10 +755,10 @@
         <v>136.0733975638444</v>
       </c>
       <c r="H3" t="n">
-        <v>99.96876284261766</v>
+        <v>99.96876284261756</v>
       </c>
       <c r="I3" t="n">
-        <v>45.66663787323679</v>
+        <v>45.66663787323643</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -785,13 +785,13 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>21.29900499199448</v>
+        <v>21.29900499199383</v>
       </c>
       <c r="S3" t="n">
-        <v>148.0912566156105</v>
+        <v>148.0912566156103</v>
       </c>
       <c r="T3" t="n">
-        <v>195.0452553973763</v>
+        <v>195.0452553973762</v>
       </c>
       <c r="U3" t="n">
         <v>225.8578215810165</v>
@@ -819,7 +819,7 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>120.0397670756256</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -828,7 +828,7 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -864,25 +864,25 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>129.4149600371269</v>
+        <v>129.4149600371265</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>205.4595917937732</v>
       </c>
       <c r="T4" t="n">
-        <v>223.3958800207158</v>
+        <v>223.3958800207157</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>281.3917809845576</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -895,28 +895,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>211.4463436435219</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>12.92889148616887</v>
+        <v>87.20308237442863</v>
       </c>
       <c r="H5" t="n">
-        <v>315.1636514716173</v>
+        <v>315.1636514716171</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>118.9581905386865</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -943,13 +943,13 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>0.7530123241016327</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>212.7043385723319</v>
+        <v>212.7043385723318</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
@@ -992,10 +992,10 @@
         <v>136.0733975638444</v>
       </c>
       <c r="H6" t="n">
-        <v>99.96876284261766</v>
+        <v>99.96876284261756</v>
       </c>
       <c r="I6" t="n">
-        <v>45.66663787323679</v>
+        <v>45.66663787323643</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1022,13 +1022,13 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>21.29900499199448</v>
+        <v>21.29900499199383</v>
       </c>
       <c r="S6" t="n">
-        <v>148.0912566156105</v>
+        <v>148.0912566156103</v>
       </c>
       <c r="T6" t="n">
-        <v>195.0452553973763</v>
+        <v>195.0452553973762</v>
       </c>
       <c r="U6" t="n">
         <v>225.8578215810165</v>
@@ -1053,13 +1053,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
@@ -1068,10 +1068,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.9261537524327</v>
       </c>
       <c r="H7" t="n">
-        <v>152.7599048465901</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -1104,7 +1104,7 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>147.511868855341</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
@@ -1113,13 +1113,13 @@
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>30.60782213839367</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -1132,10 +1132,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -1153,7 +1153,7 @@
         <v>315.0408840752156</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>118.4960408938903</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1183,25 +1183,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>75.62406024005806</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>212.651863114966</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>44.64836357069156</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1290,10 +1290,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
@@ -1305,7 +1305,7 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>166.9207765545704</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>152.7120966692326</v>
@@ -1338,22 +1338,22 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>11.4291037641047</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>205.3658819001186</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>165.5023775568717</v>
       </c>
       <c r="U10" t="n">
-        <v>286.260654658097</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -1378,7 +1378,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722614</v>
       </c>
       <c r="F11" t="n">
         <v>406.8760457417114</v>
@@ -1536,7 +1536,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>71.05846343488115</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
@@ -1545,10 +1545,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,7 +1575,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
@@ -1584,10 +1584,10 @@
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>178.513465597807</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
@@ -1657,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695439</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1764,28 +1764,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>62.50448303558164</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>139.5115415340516</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,7 +1812,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
@@ -1821,7 +1821,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -1894,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -1906,7 +1906,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
-        <v>349.2409687174127</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
         <v>369.731100678469</v>
@@ -2007,19 +2007,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2052,19 +2052,19 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>256.0341711178253</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
@@ -2143,7 +2143,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
-        <v>349.2409687174127</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
         <v>369.731100678469</v>
@@ -2244,22 +2244,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>94.64226186542875</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2295,13 +2295,13 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
-        <v>286.1844743892441</v>
+        <v>147.6895341487364</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
@@ -2475,28 +2475,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2535,10 +2535,10 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>139.5271979141359</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
@@ -2563,7 +2563,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
-        <v>381.9303700722614</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
         <v>406.8760457417114</v>
@@ -2715,25 +2715,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2760,7 +2760,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>9.146142788179482</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
@@ -2769,7 +2769,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
-        <v>39.9900098519203</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -2791,7 +2791,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>382.7338416634794</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
         <v>365.2728917710076</v>
@@ -2949,28 +2949,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>114.2821160880066</v>
       </c>
       <c r="C31" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2997,7 +2997,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
@@ -3006,7 +3006,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
-        <v>102.041750371295</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
@@ -3037,7 +3037,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E32" t="n">
-        <v>381.9303700722614</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
         <v>406.8760457417114</v>
@@ -3192,19 +3192,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>120.4424239494342</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3234,7 +3234,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012169</v>
+        <v>9.146142788179482</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
@@ -3246,13 +3246,13 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
         <v>218.5846533520948</v>
@@ -3423,28 +3423,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>60.64713141731118</v>
       </c>
       <c r="H37" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3471,10 +3471,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>217.4054503272883</v>
@@ -3483,7 +3483,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V37" t="n">
-        <v>1.619672595757311</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
         <v>286.522998336591</v>
@@ -3520,7 +3520,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H38" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3660,19 +3660,19 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>165.5241382922688</v>
@@ -3720,13 +3720,13 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>215.7213978539445</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>194.3650462979105</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
         <v>218.5846533520948</v>
@@ -3805,7 +3805,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X41" t="n">
-        <v>369.7311006784686</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y41" t="n">
         <v>386.2379386560536</v>
@@ -3897,7 +3897,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>170.8317276803708</v>
       </c>
       <c r="C43" t="n">
         <v>167.2468210986278</v>
@@ -3909,13 +3909,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
         <v>81.26583631856553</v>
@@ -3945,19 +3945,19 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>139.9142662664079</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
         <v>286.522998336591</v>
@@ -4134,25 +4134,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>48.13676080754331</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4200,7 +4200,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
         <v>218.5846533520948</v>
@@ -4306,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1953.901775011421</v>
+        <v>1873.660599164952</v>
       </c>
       <c r="C2" t="n">
-        <v>1584.939258071009</v>
+        <v>1504.69808222454</v>
       </c>
       <c r="D2" t="n">
-        <v>1584.939258071009</v>
+        <v>1146.43238361779</v>
       </c>
       <c r="E2" t="n">
-        <v>1199.151005472765</v>
+        <v>760.6441310195457</v>
       </c>
       <c r="F2" t="n">
-        <v>788.1651006831572</v>
+        <v>504.2844850656685</v>
       </c>
       <c r="G2" t="n">
-        <v>371.0652102930876</v>
+        <v>491.224998716003</v>
       </c>
       <c r="H2" t="n">
-        <v>52.71808759448422</v>
+        <v>172.8778760173998</v>
       </c>
       <c r="I2" t="n">
-        <v>52.71808759448422</v>
+        <v>52.7180875944842</v>
       </c>
       <c r="J2" t="n">
-        <v>72.94508437002345</v>
+        <v>72.94508437002509</v>
       </c>
       <c r="K2" t="n">
-        <v>153.9986274745283</v>
+        <v>153.9986274745325</v>
       </c>
       <c r="L2" t="n">
-        <v>704.9390792031065</v>
+        <v>704.9390792031138</v>
       </c>
       <c r="M2" t="n">
-        <v>1334.573032084381</v>
+        <v>1334.573032084392</v>
       </c>
       <c r="N2" t="n">
-        <v>1959.763123039494</v>
+        <v>1959.763123039507</v>
       </c>
       <c r="O2" t="n">
-        <v>2127.93258034387</v>
+        <v>2493.174093780566</v>
       </c>
       <c r="P2" t="n">
-        <v>2555.541041646065</v>
+        <v>2602.201833992996</v>
       </c>
       <c r="Q2" t="n">
-        <v>2635.904379724211</v>
+        <v>2635.90437972421</v>
       </c>
       <c r="R2" t="n">
         <v>2635.143761215016</v>
       </c>
       <c r="S2" t="n">
-        <v>2478.652798385543</v>
+        <v>2478.652798385544</v>
       </c>
       <c r="T2" t="n">
-        <v>2284.964662354992</v>
+        <v>2263.799931140764</v>
       </c>
       <c r="U2" t="n">
-        <v>2284.964662354992</v>
+        <v>2263.799931140764</v>
       </c>
       <c r="V2" t="n">
-        <v>1953.901775011421</v>
+        <v>2263.799931140764</v>
       </c>
       <c r="W2" t="n">
-        <v>1953.901775011421</v>
+        <v>2263.799931140764</v>
       </c>
       <c r="X2" t="n">
-        <v>1953.901775011421</v>
+        <v>2263.799931140764</v>
       </c>
       <c r="Y2" t="n">
-        <v>1953.901775011421</v>
+        <v>1873.660599164952</v>
       </c>
     </row>
     <row r="3">
@@ -4385,61 +4385,61 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>966.4318812120978</v>
+        <v>966.4318812120973</v>
       </c>
       <c r="C3" t="n">
-        <v>791.9788519309708</v>
+        <v>791.9788519309703</v>
       </c>
       <c r="D3" t="n">
-        <v>643.0444422697196</v>
+        <v>643.0444422697192</v>
       </c>
       <c r="E3" t="n">
-        <v>483.8069872642641</v>
+        <v>483.8069872642636</v>
       </c>
       <c r="F3" t="n">
-        <v>337.2724292911492</v>
+        <v>337.2724292911487</v>
       </c>
       <c r="G3" t="n">
-        <v>199.824552964034</v>
+        <v>199.8245529640337</v>
       </c>
       <c r="H3" t="n">
-        <v>98.84600463815786</v>
+        <v>98.84600463815735</v>
       </c>
       <c r="I3" t="n">
-        <v>52.71808759448422</v>
+        <v>52.7180875944842</v>
       </c>
       <c r="J3" t="n">
-        <v>170.7774263352073</v>
+        <v>52.7180875944842</v>
       </c>
       <c r="K3" t="n">
-        <v>237.3598989302701</v>
+        <v>119.3005601895487</v>
       </c>
       <c r="L3" t="n">
-        <v>740.3427331273796</v>
+        <v>622.2833943866603</v>
       </c>
       <c r="M3" t="n">
-        <v>918.2311849955961</v>
+        <v>1261.219859367379</v>
       </c>
       <c r="N3" t="n">
-        <v>1435.320983085772</v>
+        <v>1643.297497944256</v>
       </c>
       <c r="O3" t="n">
-        <v>1983.246222291445</v>
+        <v>2191.222737149931</v>
       </c>
       <c r="P3" t="n">
-        <v>2406.001465018977</v>
+        <v>2613.977979877465</v>
       </c>
       <c r="Q3" t="n">
-        <v>2635.904379724211</v>
+        <v>2635.90437972421</v>
       </c>
       <c r="R3" t="n">
-        <v>2614.390233267651</v>
+        <v>2614.39023326765</v>
       </c>
       <c r="S3" t="n">
-        <v>2464.803105373095</v>
+        <v>2464.803105373094</v>
       </c>
       <c r="T3" t="n">
-        <v>2267.787695880796</v>
+        <v>2267.787695880795</v>
       </c>
       <c r="U3" t="n">
         <v>2039.648482162597</v>
@@ -4448,13 +4448,13 @@
         <v>1804.496373930854</v>
       </c>
       <c r="W3" t="n">
-        <v>1550.259017202653</v>
+        <v>1550.259017202652</v>
       </c>
       <c r="X3" t="n">
-        <v>1342.40751699712</v>
+        <v>1342.407516997119</v>
       </c>
       <c r="Y3" t="n">
-        <v>1134.647218232166</v>
+        <v>1134.647218232165</v>
       </c>
     </row>
     <row r="4">
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>173.9703775698636</v>
+        <v>199.6080350923945</v>
       </c>
       <c r="C4" t="n">
-        <v>52.71808759448422</v>
+        <v>199.6080350923945</v>
       </c>
       <c r="D4" t="n">
-        <v>52.71808759448422</v>
+        <v>199.6080350923945</v>
       </c>
       <c r="E4" t="n">
-        <v>52.71808759448422</v>
+        <v>199.6080350923945</v>
       </c>
       <c r="F4" t="n">
-        <v>52.71808759448422</v>
+        <v>52.7180875944842</v>
       </c>
       <c r="G4" t="n">
-        <v>52.71808759448422</v>
+        <v>52.7180875944842</v>
       </c>
       <c r="H4" t="n">
-        <v>52.71808759448422</v>
+        <v>52.7180875944842</v>
       </c>
       <c r="I4" t="n">
-        <v>52.71808759448422</v>
+        <v>52.7180875944842</v>
       </c>
       <c r="J4" t="n">
-        <v>52.71808759448422</v>
+        <v>52.7180875944842</v>
       </c>
       <c r="K4" t="n">
-        <v>153.1475318919727</v>
+        <v>153.1475318919737</v>
       </c>
       <c r="L4" t="n">
-        <v>337.1890785482312</v>
+        <v>337.1890785482335</v>
       </c>
       <c r="M4" t="n">
-        <v>541.624208062813</v>
+        <v>541.6242080628167</v>
       </c>
       <c r="N4" t="n">
-        <v>746.632943554373</v>
+        <v>746.632943554378</v>
       </c>
       <c r="O4" t="n">
-        <v>919.975396891705</v>
+        <v>919.9753968917113</v>
       </c>
       <c r="P4" t="n">
-        <v>1044.779129327081</v>
+        <v>1044.779129327088</v>
       </c>
       <c r="Q4" t="n">
-        <v>1047.751684421854</v>
+        <v>1047.751684421862</v>
       </c>
       <c r="R4" t="n">
-        <v>917.0295025661707</v>
+        <v>917.029502566179</v>
       </c>
       <c r="S4" t="n">
-        <v>917.0295025661707</v>
+        <v>709.4945613603475</v>
       </c>
       <c r="T4" t="n">
-        <v>691.3770985048416</v>
+        <v>483.8421572990184</v>
       </c>
       <c r="U4" t="n">
-        <v>691.3770985048416</v>
+        <v>199.6080350923945</v>
       </c>
       <c r="V4" t="n">
-        <v>691.3770985048416</v>
+        <v>199.6080350923945</v>
       </c>
       <c r="W4" t="n">
-        <v>401.959928467881</v>
+        <v>199.6080350923945</v>
       </c>
       <c r="X4" t="n">
-        <v>173.9703775698636</v>
+        <v>199.6080350923945</v>
       </c>
       <c r="Y4" t="n">
-        <v>173.9703775698636</v>
+        <v>199.6080350923945</v>
       </c>
     </row>
     <row r="5">
@@ -4543,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>973.6148796288551</v>
+        <v>586.2544210555384</v>
       </c>
       <c r="C5" t="n">
-        <v>604.6523626884434</v>
+        <v>586.2544210555384</v>
       </c>
       <c r="D5" t="n">
-        <v>604.6523626884434</v>
+        <v>586.2544210555384</v>
       </c>
       <c r="E5" t="n">
-        <v>391.0701973919566</v>
+        <v>586.2544210555384</v>
       </c>
       <c r="F5" t="n">
-        <v>384.1246966427531</v>
+        <v>579.3089203063349</v>
       </c>
       <c r="G5" t="n">
-        <v>371.0652102930876</v>
+        <v>491.224998716003</v>
       </c>
       <c r="H5" t="n">
-        <v>52.71808759448422</v>
+        <v>172.8778760173998</v>
       </c>
       <c r="I5" t="n">
-        <v>52.71808759448422</v>
+        <v>52.7180875944842</v>
       </c>
       <c r="J5" t="n">
-        <v>240.3507333903765</v>
+        <v>72.94508437002509</v>
       </c>
       <c r="K5" t="n">
-        <v>321.4042764948814</v>
+        <v>474.9025859199855</v>
       </c>
       <c r="L5" t="n">
-        <v>872.3447282234596</v>
+        <v>1025.843037648567</v>
       </c>
       <c r="M5" t="n">
-        <v>1227.023259395758</v>
+        <v>1210.458592371941</v>
       </c>
       <c r="N5" t="n">
-        <v>1419.239895183006</v>
+        <v>1629.431735936301</v>
       </c>
       <c r="O5" t="n">
-        <v>1964.401531937499</v>
+        <v>2174.593372690798</v>
       </c>
       <c r="P5" t="n">
-        <v>2392.009993239694</v>
+        <v>2602.201833992996</v>
       </c>
       <c r="Q5" t="n">
-        <v>2635.904379724211</v>
+        <v>2635.90437972421</v>
       </c>
       <c r="R5" t="n">
-        <v>2635.904379724211</v>
+        <v>2635.143761215016</v>
       </c>
       <c r="S5" t="n">
-        <v>2635.904379724211</v>
+        <v>2635.143761215016</v>
       </c>
       <c r="T5" t="n">
-        <v>2421.051512479431</v>
+        <v>2420.290893970237</v>
       </c>
       <c r="U5" t="n">
-        <v>2421.051512479431</v>
+        <v>2420.290893970237</v>
       </c>
       <c r="V5" t="n">
-        <v>2089.988625135861</v>
+        <v>2089.228006626666</v>
       </c>
       <c r="W5" t="n">
-        <v>1737.219969865747</v>
+        <v>1736.459351356552</v>
       </c>
       <c r="X5" t="n">
-        <v>1363.754211604667</v>
+        <v>1362.993593095472</v>
       </c>
       <c r="Y5" t="n">
-        <v>973.6148796288551</v>
+        <v>972.8542611196601</v>
       </c>
     </row>
     <row r="6">
@@ -4622,52 +4622,52 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>966.4318812120978</v>
+        <v>966.4318812120981</v>
       </c>
       <c r="C6" t="n">
-        <v>791.9788519309708</v>
+        <v>791.9788519309711</v>
       </c>
       <c r="D6" t="n">
-        <v>643.0444422697196</v>
+        <v>643.0444422697199</v>
       </c>
       <c r="E6" t="n">
-        <v>483.8069872642641</v>
+        <v>483.8069872642643</v>
       </c>
       <c r="F6" t="n">
-        <v>337.2724292911492</v>
+        <v>337.2724292911493</v>
       </c>
       <c r="G6" t="n">
-        <v>199.8245529640342</v>
+        <v>199.8245529640337</v>
       </c>
       <c r="H6" t="n">
-        <v>98.84600463815775</v>
+        <v>98.84600463815735</v>
       </c>
       <c r="I6" t="n">
-        <v>52.71808759448422</v>
+        <v>52.7180875944842</v>
       </c>
       <c r="J6" t="n">
-        <v>52.71808759448422</v>
+        <v>52.7180875944842</v>
       </c>
       <c r="K6" t="n">
-        <v>381.1211448319999</v>
+        <v>119.3005601895487</v>
       </c>
       <c r="L6" t="n">
-        <v>884.1039790291093</v>
+        <v>622.2833943866603</v>
       </c>
       <c r="M6" t="n">
-        <v>1172.858345187993</v>
+        <v>1261.219859367379</v>
       </c>
       <c r="N6" t="n">
-        <v>1825.244679169735</v>
+        <v>1913.606193349121</v>
       </c>
       <c r="O6" t="n">
-        <v>1983.246222291445</v>
+        <v>2461.531432554796</v>
       </c>
       <c r="P6" t="n">
-        <v>2406.001465018977</v>
+        <v>2613.977979877466</v>
       </c>
       <c r="Q6" t="n">
-        <v>2635.904379724211</v>
+        <v>2635.90437972421</v>
       </c>
       <c r="R6" t="n">
         <v>2614.390233267651</v>
@@ -4701,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>670.7602457911694</v>
+        <v>835.1862275326391</v>
       </c>
       <c r="C7" t="n">
-        <v>501.8240628632625</v>
+        <v>666.2500446047322</v>
       </c>
       <c r="D7" t="n">
-        <v>501.8240628632625</v>
+        <v>516.1334051923965</v>
       </c>
       <c r="E7" t="n">
-        <v>353.9109692808694</v>
+        <v>368.2203116100034</v>
       </c>
       <c r="F7" t="n">
-        <v>207.0210217829591</v>
+        <v>221.330364112093</v>
       </c>
       <c r="G7" t="n">
-        <v>207.0210217829591</v>
+        <v>52.7180875944842</v>
       </c>
       <c r="H7" t="n">
-        <v>52.71808759448422</v>
+        <v>52.7180875944842</v>
       </c>
       <c r="I7" t="n">
-        <v>52.71808759448422</v>
+        <v>52.7180875944842</v>
       </c>
       <c r="J7" t="n">
-        <v>52.71808759448422</v>
+        <v>52.7180875944842</v>
       </c>
       <c r="K7" t="n">
-        <v>153.1475318919727</v>
+        <v>153.1475318919737</v>
       </c>
       <c r="L7" t="n">
-        <v>337.1890785482312</v>
+        <v>337.1890785482335</v>
       </c>
       <c r="M7" t="n">
-        <v>541.624208062813</v>
+        <v>541.6242080628167</v>
       </c>
       <c r="N7" t="n">
-        <v>746.632943554373</v>
+        <v>746.632943554378</v>
       </c>
       <c r="O7" t="n">
-        <v>919.975396891705</v>
+        <v>919.9753968917113</v>
       </c>
       <c r="P7" t="n">
-        <v>1044.779129327081</v>
+        <v>1044.779129327088</v>
       </c>
       <c r="Q7" t="n">
-        <v>1047.751684421854</v>
+        <v>1047.751684421862</v>
       </c>
       <c r="R7" t="n">
-        <v>1047.751684421854</v>
+        <v>1047.751684421862</v>
       </c>
       <c r="S7" t="n">
-        <v>898.7497966891867</v>
+        <v>1047.751684421862</v>
       </c>
       <c r="T7" t="n">
-        <v>898.7497966891867</v>
+        <v>1047.751684421862</v>
       </c>
       <c r="U7" t="n">
-        <v>898.7497966891867</v>
+        <v>1047.751684421862</v>
       </c>
       <c r="V7" t="n">
-        <v>898.7497966891867</v>
+        <v>1016.834692362879</v>
       </c>
       <c r="W7" t="n">
-        <v>898.7497966891867</v>
+        <v>1016.834692362879</v>
       </c>
       <c r="X7" t="n">
-        <v>670.7602457911694</v>
+        <v>1016.834692362879</v>
       </c>
       <c r="Y7" t="n">
-        <v>670.7602457911694</v>
+        <v>1016.834692362879</v>
       </c>
     </row>
     <row r="8">
@@ -4780,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1567.977406315566</v>
+        <v>1318.707859975044</v>
       </c>
       <c r="C8" t="n">
-        <v>1199.014889375155</v>
+        <v>1318.707859975044</v>
       </c>
       <c r="D8" t="n">
-        <v>1199.014889375155</v>
+        <v>1318.707859975044</v>
       </c>
       <c r="E8" t="n">
-        <v>1199.014889375155</v>
+        <v>1318.707859975044</v>
       </c>
       <c r="F8" t="n">
-        <v>788.0289845855473</v>
+        <v>907.7219551854364</v>
       </c>
       <c r="G8" t="n">
-        <v>370.9412028219747</v>
+        <v>490.6341734218639</v>
       </c>
       <c r="H8" t="n">
-        <v>52.71808759448422</v>
+        <v>172.4110581943734</v>
       </c>
       <c r="I8" t="n">
-        <v>52.71808759448422</v>
+        <v>52.7180875944842</v>
       </c>
       <c r="J8" t="n">
-        <v>241.3579866082206</v>
+        <v>241.3579866082205</v>
       </c>
       <c r="K8" t="n">
-        <v>323.9211411828129</v>
+        <v>644.825099628266</v>
       </c>
       <c r="L8" t="n">
-        <v>463.2497970240661</v>
+        <v>1033.218542125547</v>
       </c>
       <c r="M8" t="n">
-        <v>1094.967608007378</v>
+        <v>1219.917954950955</v>
       </c>
       <c r="N8" t="n">
-        <v>1722.275276067224</v>
+        <v>1414.252167842937</v>
       </c>
       <c r="O8" t="n">
-        <v>2269.436480834302</v>
+        <v>1961.413372610014</v>
       </c>
       <c r="P8" t="n">
-        <v>2390.72841894931</v>
+        <v>2390.728418949309</v>
       </c>
       <c r="Q8" t="n">
-        <v>2635.904379724211</v>
+        <v>2635.90437972421</v>
       </c>
       <c r="R8" t="n">
-        <v>2635.904379724211</v>
+        <v>2635.90437972421</v>
       </c>
       <c r="S8" t="n">
-        <v>2559.516440087789</v>
+        <v>2635.90437972421</v>
       </c>
       <c r="T8" t="n">
-        <v>2344.7165783555</v>
+        <v>2421.104517991921</v>
       </c>
       <c r="U8" t="n">
-        <v>2344.7165783555</v>
+        <v>2376.005160849808</v>
       </c>
       <c r="V8" t="n">
-        <v>2344.7165783555</v>
+        <v>2044.942273506238</v>
       </c>
       <c r="W8" t="n">
-        <v>2344.7165783555</v>
+        <v>1692.173618236124</v>
       </c>
       <c r="X8" t="n">
-        <v>2344.7165783555</v>
+        <v>1318.707859975044</v>
       </c>
       <c r="Y8" t="n">
-        <v>1954.577246379688</v>
+        <v>1318.707859975044</v>
       </c>
     </row>
     <row r="9">
@@ -4874,34 +4874,34 @@
         <v>336.9803201001412</v>
       </c>
       <c r="G9" t="n">
-        <v>199.5389224593632</v>
+        <v>199.5389224593631</v>
       </c>
       <c r="H9" t="n">
-        <v>98.62294460416774</v>
+        <v>98.62294460416771</v>
       </c>
       <c r="I9" t="n">
-        <v>52.71808759448422</v>
+        <v>52.7180875944842</v>
       </c>
       <c r="J9" t="n">
         <v>171.3773394513799</v>
       </c>
       <c r="K9" t="n">
-        <v>500.8057437571898</v>
+        <v>500.8057437571897</v>
       </c>
       <c r="L9" t="n">
-        <v>638.0353417728837</v>
+        <v>1005.167283623308</v>
       </c>
       <c r="M9" t="n">
-        <v>1278.580691239988</v>
+        <v>1184.664619977913</v>
       </c>
       <c r="N9" t="n">
-        <v>1930.967025221731</v>
+        <v>1430.945911741486</v>
       </c>
       <c r="O9" t="n">
-        <v>2480.403033974454</v>
+        <v>1980.381920494209</v>
       </c>
       <c r="P9" t="n">
-        <v>2612.326203833537</v>
+        <v>2404.349688975046</v>
       </c>
       <c r="Q9" t="n">
         <v>2635.063145035514</v>
@@ -4938,31 +4938,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>544.5157586272427</v>
+        <v>206.9727306947191</v>
       </c>
       <c r="C10" t="n">
-        <v>375.5795756993357</v>
+        <v>206.9727306947191</v>
       </c>
       <c r="D10" t="n">
-        <v>375.5795756993357</v>
+        <v>206.9727306947191</v>
       </c>
       <c r="E10" t="n">
-        <v>375.5795756993357</v>
+        <v>206.9727306947191</v>
       </c>
       <c r="F10" t="n">
-        <v>375.5795756993357</v>
+        <v>206.9727306947191</v>
       </c>
       <c r="G10" t="n">
         <v>206.9727306947191</v>
       </c>
       <c r="H10" t="n">
-        <v>52.71808759448422</v>
+        <v>52.7180875944842</v>
       </c>
       <c r="I10" t="n">
-        <v>52.71808759448422</v>
+        <v>52.7180875944842</v>
       </c>
       <c r="J10" t="n">
-        <v>52.71808759448422</v>
+        <v>52.7180875944842</v>
       </c>
       <c r="K10" t="n">
         <v>153.766017190094</v>
@@ -4986,28 +4986,28 @@
         <v>1052.652769053829</v>
       </c>
       <c r="R10" t="n">
-        <v>1041.108219797158</v>
+        <v>1052.652769053829</v>
       </c>
       <c r="S10" t="n">
-        <v>833.6679350495629</v>
+        <v>845.2124843062343</v>
       </c>
       <c r="T10" t="n">
-        <v>833.6679350495629</v>
+        <v>678.0383655619194</v>
       </c>
       <c r="U10" t="n">
-        <v>544.5157586272427</v>
+        <v>678.0383655619194</v>
       </c>
       <c r="V10" t="n">
-        <v>544.5157586272427</v>
+        <v>678.0383655619194</v>
       </c>
       <c r="W10" t="n">
-        <v>544.5157586272427</v>
+        <v>388.6211955249588</v>
       </c>
       <c r="X10" t="n">
-        <v>544.5157586272427</v>
+        <v>388.6211955249588</v>
       </c>
       <c r="Y10" t="n">
-        <v>544.5157586272427</v>
+        <v>388.6211955249588</v>
       </c>
     </row>
     <row r="11">
@@ -5023,7 +5023,7 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E11" t="n">
         <v>1204.759558406469</v>
@@ -5038,22 +5038,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111717</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O11" t="n">
         <v>3640.42229106801</v>
@@ -5117,28 +5117,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J12" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K12" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L12" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M12" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N12" t="n">
-        <v>1670.092171589158</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O12" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P12" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q12" t="n">
         <v>2553.061288060775</v>
@@ -5175,25 +5175,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1022.530292372932</v>
+        <v>874.8686257536381</v>
       </c>
       <c r="C13" t="n">
-        <v>853.5941094450255</v>
+        <v>705.9324428257312</v>
       </c>
       <c r="D13" t="n">
-        <v>703.4774700326898</v>
+        <v>555.8158034133954</v>
       </c>
       <c r="E13" t="n">
-        <v>631.7012443408906</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F13" t="n">
-        <v>484.8112968429803</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G13" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H13" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I13" t="n">
         <v>93.81666304797187</v>
@@ -5223,28 +5223,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T13" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="U13" t="n">
-        <v>2197.062545487567</v>
+        <v>1975.033022579363</v>
       </c>
       <c r="V13" t="n">
-        <v>1942.37805728168</v>
+        <v>1794.716390662386</v>
       </c>
       <c r="W13" t="n">
-        <v>1652.96088724472</v>
+        <v>1505.299220625425</v>
       </c>
       <c r="X13" t="n">
-        <v>1424.971336346702</v>
+        <v>1277.309669727408</v>
       </c>
       <c r="Y13" t="n">
-        <v>1204.178757203172</v>
+        <v>1056.517090583878</v>
       </c>
     </row>
     <row r="14">
@@ -5275,10 +5275,10 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K14" t="n">
         <v>852.8523611075807</v>
@@ -5305,22 +5305,22 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y14" t="n">
         <v>2704.375866615997</v>
@@ -5354,28 +5354,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J15" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K15" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L15" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M15" t="n">
-        <v>1268.578514636218</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N15" t="n">
-        <v>1896.176478190825</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O15" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P15" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q15" t="n">
         <v>2553.061288060775</v>
@@ -5412,25 +5412,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>695.5020655703109</v>
+        <v>869.9745311434712</v>
       </c>
       <c r="C16" t="n">
-        <v>526.5658826424041</v>
+        <v>701.0383482155643</v>
       </c>
       <c r="D16" t="n">
-        <v>376.4492432300683</v>
+        <v>637.9025067654818</v>
       </c>
       <c r="E16" t="n">
-        <v>376.4492432300683</v>
+        <v>489.9894131830887</v>
       </c>
       <c r="F16" t="n">
-        <v>376.4492432300683</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G16" t="n">
-        <v>235.5284942057738</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H16" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I16" t="n">
         <v>93.81666304797187</v>
@@ -5460,28 +5460,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510508</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U16" t="n">
-        <v>1688.385853854706</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="V16" t="n">
-        <v>1433.701365648819</v>
+        <v>1789.822296052219</v>
       </c>
       <c r="W16" t="n">
-        <v>1144.284195611858</v>
+        <v>1500.405126015258</v>
       </c>
       <c r="X16" t="n">
-        <v>916.2946447138411</v>
+        <v>1272.415575117241</v>
       </c>
       <c r="Y16" t="n">
-        <v>695.5020655703109</v>
+        <v>1051.622995973711</v>
       </c>
     </row>
     <row r="17">
@@ -5512,13 +5512,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332387</v>
@@ -5551,7 +5551,7 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W17" t="n">
         <v>3467.980956852889</v>
@@ -5591,31 +5591,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J18" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K18" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L18" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M18" t="n">
-        <v>1072.713683962606</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N18" t="n">
-        <v>1700.311647517212</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O18" t="n">
-        <v>2252.221377756499</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P18" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q18" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5649,22 +5649,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>1016.58045691144</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C19" t="n">
-        <v>847.6442739835331</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D19" t="n">
-        <v>697.5276345711974</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E19" t="n">
-        <v>549.6145409888043</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F19" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G19" t="n">
-        <v>235.5284942057738</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H19" t="n">
         <v>93.81666304797187</v>
@@ -5700,25 +5700,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T19" t="n">
-        <v>2160.315914855604</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U19" t="n">
-        <v>2160.315914855604</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V19" t="n">
-        <v>1905.631426649717</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W19" t="n">
-        <v>1647.011051783227</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X19" t="n">
-        <v>1419.02150088521</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y19" t="n">
-        <v>1198.22892174168</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="20">
@@ -5740,7 +5740,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G20" t="n">
         <v>379.8308874362686</v>
@@ -5791,10 +5791,10 @@
         <v>3820.749612123002</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5834,22 +5834,22 @@
         <v>245.2306927803937</v>
       </c>
       <c r="K21" t="n">
-        <v>579.1554649516142</v>
+        <v>280.8495004245706</v>
       </c>
       <c r="L21" t="n">
-        <v>1074.481071167373</v>
+        <v>776.1751066403293</v>
       </c>
       <c r="M21" t="n">
-        <v>1268.578514636218</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N21" t="n">
-        <v>1896.176478190825</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O21" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P21" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q21" t="n">
         <v>2553.061288060775</v>
@@ -5886,25 +5886,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>803.2707707770319</v>
+        <v>653.7474797708871</v>
       </c>
       <c r="C22" t="n">
-        <v>634.334587849125</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="D22" t="n">
-        <v>484.2179484367892</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E22" t="n">
-        <v>336.3048548543961</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F22" t="n">
-        <v>189.4149073564858</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G22" t="n">
-        <v>189.4149073564858</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H22" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I22" t="n">
         <v>93.81666304797187</v>
@@ -5943,19 +5943,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U22" t="n">
-        <v>1688.385853854706</v>
+        <v>1828.279732885522</v>
       </c>
       <c r="V22" t="n">
-        <v>1433.701365648819</v>
+        <v>1573.595244679635</v>
       </c>
       <c r="W22" t="n">
-        <v>1433.701365648819</v>
+        <v>1284.178074642674</v>
       </c>
       <c r="X22" t="n">
-        <v>1205.711814750802</v>
+        <v>1056.188523744657</v>
       </c>
       <c r="Y22" t="n">
-        <v>984.9192356072716</v>
+        <v>835.3959446011269</v>
       </c>
     </row>
     <row r="23">
@@ -5992,19 +5992,19 @@
         <v>378.1925803111717</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P23" t="n">
         <v>4194.413870694707</v>
@@ -6065,28 +6065,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J24" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K24" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L24" t="n">
-        <v>577.3880777468471</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M24" t="n">
-        <v>716.6687843969308</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N24" t="n">
-        <v>1344.266747951538</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O24" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P24" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q24" t="n">
         <v>2553.061288060775</v>
@@ -6123,25 +6123,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>1098.667160263527</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C25" t="n">
-        <v>929.7309773356195</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D25" t="n">
-        <v>779.6143379232838</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E25" t="n">
-        <v>631.7012443408906</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F25" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G25" t="n">
-        <v>317.6151975578602</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H25" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I25" t="n">
         <v>93.81666304797187</v>
@@ -6183,16 +6183,16 @@
         <v>1688.385853854706</v>
       </c>
       <c r="V25" t="n">
-        <v>1688.385853854706</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W25" t="n">
-        <v>1547.449290305074</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X25" t="n">
-        <v>1319.459739407057</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y25" t="n">
-        <v>1098.667160263527</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="26">
@@ -6208,7 +6208,7 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E26" t="n">
         <v>1204.759558406469</v>
@@ -6226,13 +6226,13 @@
         <v>95.34095638192593</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M26" t="n">
         <v>2206.558663014779</v>
@@ -6314,13 +6314,13 @@
         <v>1074.481071167373</v>
       </c>
       <c r="M27" t="n">
-        <v>1074.481071167373</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N27" t="n">
-        <v>1702.079034721979</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O27" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P27" t="n">
         <v>2553.061288060775</v>
@@ -6360,25 +6360,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>762.5348780504994</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C28" t="n">
-        <v>762.5348780504994</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D28" t="n">
-        <v>612.4182386381636</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E28" t="n">
-        <v>464.5051450557705</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F28" t="n">
-        <v>317.6151975578602</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G28" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H28" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I28" t="n">
         <v>93.81666304797187</v>
@@ -6408,28 +6408,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>2379.917379832663</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S28" t="n">
-        <v>2197.062545487567</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T28" t="n">
-        <v>1977.461080510508</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U28" t="n">
-        <v>1937.067131165134</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V28" t="n">
-        <v>1682.382642959247</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W28" t="n">
-        <v>1392.965472922287</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X28" t="n">
-        <v>1164.975922024269</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y28" t="n">
-        <v>944.1833428807391</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="29">
@@ -6454,28 +6454,28 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797186</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O29" t="n">
         <v>3640.42229106801</v>
@@ -6484,31 +6484,31 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R29" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T29" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y29" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="30">
@@ -6536,34 +6536,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J30" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K30" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L30" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M30" t="n">
-        <v>1231.938859683105</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N30" t="n">
-        <v>1859.536823237711</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O30" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P30" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q30" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6597,28 +6597,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>948.5505208511905</v>
+        <v>580.0655846733346</v>
       </c>
       <c r="C31" t="n">
-        <v>779.6143379232836</v>
+        <v>411.1294017454277</v>
       </c>
       <c r="D31" t="n">
-        <v>779.6143379232836</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="E31" t="n">
-        <v>631.7012443408905</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F31" t="n">
-        <v>484.8112968429802</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G31" t="n">
-        <v>317.6151975578601</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H31" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
         <v>174.0526814782957</v>
@@ -6645,28 +6645,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T31" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U31" t="n">
-        <v>1941.434309135586</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V31" t="n">
-        <v>1686.749820929699</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W31" t="n">
-        <v>1397.332650892738</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X31" t="n">
-        <v>1169.343099994721</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y31" t="n">
-        <v>948.5505208511905</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="32">
@@ -6682,7 +6682,7 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E32" t="n">
         <v>1204.759558406469</v>
@@ -6691,19 +6691,19 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J32" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332387</v>
@@ -6788,16 +6788,16 @@
         <v>1072.713683962606</v>
       </c>
       <c r="M33" t="n">
-        <v>1670.092171589158</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N33" t="n">
-        <v>1896.176478190825</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O33" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P33" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q33" t="n">
         <v>2553.061288060775</v>
@@ -6834,22 +6834,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>996.5276398439756</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C34" t="n">
-        <v>827.5914569160688</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D34" t="n">
-        <v>677.474817503733</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E34" t="n">
-        <v>529.5617239213399</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F34" t="n">
-        <v>382.6717764234295</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G34" t="n">
-        <v>215.4756771383094</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H34" t="n">
         <v>93.81666304797187</v>
@@ -6882,28 +6882,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>2379.917379832663</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S34" t="n">
-        <v>2197.062545487567</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T34" t="n">
-        <v>1977.461080510508</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U34" t="n">
-        <v>1688.385853854706</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V34" t="n">
-        <v>1688.385853854706</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W34" t="n">
-        <v>1398.968683817745</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X34" t="n">
-        <v>1398.968683817745</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y34" t="n">
-        <v>1178.176104674215</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="35">
@@ -6925,22 +6925,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
@@ -7013,25 +7013,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J36" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K36" t="n">
-        <v>427.7414352191925</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L36" t="n">
-        <v>923.0670414349511</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M36" t="n">
-        <v>1520.445529061503</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N36" t="n">
-        <v>2129.438138565707</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O36" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P36" t="n">
         <v>2553.061288060775</v>
@@ -7071,25 +7071,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>948.5505208511906</v>
+        <v>763.7541388327643</v>
       </c>
       <c r="C37" t="n">
-        <v>779.6143379232838</v>
+        <v>594.8179559048574</v>
       </c>
       <c r="D37" t="n">
-        <v>779.6143379232838</v>
+        <v>444.7013164925216</v>
       </c>
       <c r="E37" t="n">
-        <v>631.7012443408906</v>
+        <v>296.7882229101285</v>
       </c>
       <c r="F37" t="n">
-        <v>484.8112968429803</v>
+        <v>296.7882229101285</v>
       </c>
       <c r="G37" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H37" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I37" t="n">
         <v>93.81666304797187</v>
@@ -7119,28 +7119,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S37" t="n">
-        <v>2197.062545487567</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T37" t="n">
-        <v>1977.461080510508</v>
+        <v>2227.361618603201</v>
       </c>
       <c r="U37" t="n">
-        <v>1688.385853854706</v>
+        <v>1938.286391947399</v>
       </c>
       <c r="V37" t="n">
-        <v>1686.749820929699</v>
+        <v>1683.601903741512</v>
       </c>
       <c r="W37" t="n">
-        <v>1397.332650892738</v>
+        <v>1394.184733704551</v>
       </c>
       <c r="X37" t="n">
-        <v>1169.343099994721</v>
+        <v>1166.195182806534</v>
       </c>
       <c r="Y37" t="n">
-        <v>948.5505208511906</v>
+        <v>945.402603663004</v>
       </c>
     </row>
     <row r="38">
@@ -7150,10 +7150,10 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C38" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D38" t="n">
         <v>1590.547811004712</v>
@@ -7162,22 +7162,22 @@
         <v>1204.759558406468</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H38" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J38" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
@@ -7207,19 +7207,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y38" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="39">
@@ -7256,25 +7256,25 @@
         <v>245.2306927803937</v>
       </c>
       <c r="K39" t="n">
-        <v>245.2306927803937</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L39" t="n">
-        <v>634.5603720565526</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M39" t="n">
-        <v>1231.938859683105</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N39" t="n">
-        <v>1859.536823237711</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O39" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P39" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q39" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7308,16 +7308,16 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>1016.58045691144</v>
+        <v>550.637687073287</v>
       </c>
       <c r="C40" t="n">
-        <v>847.6442739835331</v>
+        <v>550.637687073287</v>
       </c>
       <c r="D40" t="n">
-        <v>697.5276345711974</v>
+        <v>550.637687073287</v>
       </c>
       <c r="E40" t="n">
-        <v>549.6145409888043</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F40" t="n">
         <v>402.7245934908939</v>
@@ -7368,16 +7368,16 @@
         <v>1688.385853854706</v>
       </c>
       <c r="V40" t="n">
-        <v>1433.701365648819</v>
+        <v>1470.485451982035</v>
       </c>
       <c r="W40" t="n">
-        <v>1433.701365648819</v>
+        <v>1181.068281945074</v>
       </c>
       <c r="X40" t="n">
-        <v>1237.37303605497</v>
+        <v>953.0787310470569</v>
       </c>
       <c r="Y40" t="n">
-        <v>1016.58045691144</v>
+        <v>732.2861519035267</v>
       </c>
     </row>
     <row r="41">
@@ -7414,7 +7414,7 @@
         <v>378.1925803111715</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
@@ -7453,7 +7453,7 @@
         <v>3467.980956852888</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y41" t="n">
         <v>2704.375866615997</v>
@@ -7487,31 +7487,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J42" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K42" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L42" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M42" t="n">
-        <v>1307.627092998424</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N42" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O42" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P42" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q42" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>3053.935450426146</v>
+        <v>1098.667160263527</v>
       </c>
       <c r="C43" t="n">
-        <v>2884.99926749824</v>
+        <v>929.7309773356195</v>
       </c>
       <c r="D43" t="n">
-        <v>2734.882628085904</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E43" t="n">
-        <v>2586.969534503511</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F43" t="n">
-        <v>2586.969534503511</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G43" t="n">
-        <v>2419.773435218391</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H43" t="n">
-        <v>2419.773435218391</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I43" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K43" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L43" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M43" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N43" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O43" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P43" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q43" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
-        <v>4623.787448650995</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S43" t="n">
-        <v>4482.459906967755</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T43" t="n">
-        <v>4262.858441990697</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="U43" t="n">
-        <v>3973.783215334895</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="V43" t="n">
-        <v>3973.783215334895</v>
+        <v>2009.423761029278</v>
       </c>
       <c r="W43" t="n">
-        <v>3684.366045297934</v>
+        <v>1720.006590992317</v>
       </c>
       <c r="X43" t="n">
-        <v>3456.376494399916</v>
+        <v>1492.0170400943</v>
       </c>
       <c r="Y43" t="n">
-        <v>3235.583915256386</v>
+        <v>1271.22446095077</v>
       </c>
     </row>
     <row r="44">
@@ -7651,7 +7651,7 @@
         <v>378.1925803111715</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332387</v>
@@ -7724,28 +7724,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J45" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K45" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L45" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N45" t="n">
-        <v>1670.092171589158</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O45" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P45" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q45" t="n">
         <v>2553.061288060775</v>
@@ -7782,22 +7782,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>923.4916164683283</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C46" t="n">
-        <v>754.5554335404214</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D46" t="n">
-        <v>604.4387941280856</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E46" t="n">
-        <v>456.5257005456925</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F46" t="n">
-        <v>309.6357530477821</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G46" t="n">
-        <v>142.4396537626621</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H46" t="n">
         <v>93.81666304797187</v>
@@ -7848,10 +7848,10 @@
         <v>1144.284195611858</v>
       </c>
       <c r="X46" t="n">
-        <v>1144.284195611858</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y46" t="n">
-        <v>923.4916164683283</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
   </sheetData>
@@ -7993,13 +7993,13 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>368.9308216532116</v>
       </c>
       <c r="P2" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>47.13211348175284</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
         <v>65.71641987298243</v>
@@ -8057,7 +8057,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>126.0910353404088</v>
+        <v>6.839178026546165</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -8066,10 +8066,10 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N3" t="n">
-        <v>323.3177003119894</v>
+        <v>186.9417816116838</v>
       </c>
       <c r="O3" t="n">
         <v>393.8623192767295</v>
@@ -8078,7 +8078,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8215,19 +8215,19 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L5" t="n">
         <v>417.6612145504504</v>
       </c>
       <c r="M5" t="n">
-        <v>171.7807842918458</v>
+        <v>0</v>
       </c>
       <c r="N5" t="n">
-        <v>0</v>
+        <v>229.0469775526354</v>
       </c>
       <c r="O5" t="n">
         <v>380.8001812627454</v>
@@ -8236,7 +8236,7 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q5" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R5" t="n">
         <v>65.71641987298243</v>
@@ -8294,28 +8294,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>6.839178026547145</v>
+        <v>6.839178026546165</v>
       </c>
       <c r="K6" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M6" t="n">
-        <v>111.9857720107746</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N6" t="n">
-        <v>459.9808678792276</v>
+        <v>459.9808678792245</v>
       </c>
       <c r="O6" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P6" t="n">
-        <v>318.4627686399372</v>
+        <v>45.4236823723968</v>
       </c>
       <c r="Q6" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8455,22 +8455,22 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K8" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L8" t="n">
-        <v>0</v>
+        <v>251.5805925818464</v>
       </c>
       <c r="M8" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N8" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O8" t="n">
         <v>380.8001812627454</v>
       </c>
       <c r="P8" t="n">
-        <v>10.6642554196789</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q8" t="n">
         <v>212.3149906599047</v>
@@ -8537,22 +8537,22 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M9" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>458.3127195243208</v>
+        <v>48.10560617263477</v>
       </c>
       <c r="O9" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P9" t="n">
-        <v>23.46822457755968</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -23424,7 +23424,7 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>75.37549921168802</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
@@ -23433,10 +23433,10 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,7 +23463,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>66.37524671011788</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -23472,10 +23472,10 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>73.62417772602097</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -23652,28 +23652,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>86.11098998263071</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>26.01259675821728</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23700,7 +23700,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -23709,7 +23709,7 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -23895,19 +23895,19 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I19" t="n">
         <v>81.26583631856553</v>
@@ -23940,19 +23940,19 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>30.48882721876566</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -24132,22 +24132,22 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>45.65245098079514</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24183,13 +24183,13 @@
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>138.4949402405077</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
@@ -24363,28 +24363,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24423,10 +24423,10 @@
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>146.9958004224551</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
@@ -24603,25 +24603,25 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24648,7 +24648,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -24657,7 +24657,7 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>246.1944645373239</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -24837,28 +24837,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>65.54986409393069</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24885,7 +24885,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -24894,7 +24894,7 @@
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>184.1427240179491</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -25080,19 +25080,19 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>19.8522888967897</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>81.26583631856553</v>
@@ -25122,7 +25122,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -25134,13 +25134,13 @@
         <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -25311,28 +25311,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>104.8770068749577</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25359,10 +25359,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -25371,7 +25371,7 @@
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>250.5179707280707</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
@@ -25548,19 +25548,19 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
@@ -25608,13 +25608,13 @@
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>36.41624546988353</v>
       </c>
       <c r="W40" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>31.34460909112661</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -25785,7 +25785,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>9.000252501566507</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
@@ -25797,13 +25797,13 @@
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -25833,19 +25833,19 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
-        <v>41.11201973523674</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
@@ -26022,25 +26022,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>92.15795203868058</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I46" t="n">
         <v>81.26583631856553</v>
@@ -26088,7 +26088,7 @@
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -26125,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>874835.5520526443</v>
+        <v>874835.5520526437</v>
       </c>
     </row>
     <row r="3">
@@ -26133,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>874835.5520526443</v>
+        <v>874835.5520526437</v>
       </c>
     </row>
     <row r="4">
@@ -26141,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>874487.3735886798</v>
+        <v>874487.3735886797</v>
       </c>
     </row>
     <row r="5">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>812636.0953751173</v>
+        <v>812636.0953751171</v>
       </c>
     </row>
     <row r="8">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>812636.0953751173</v>
+        <v>812636.0953751171</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>812636.0953751173</v>
+        <v>812636.0953751171</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>812636.0953751173</v>
+        <v>812636.0953751171</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>812636.0953751173</v>
+        <v>812636.0953751171</v>
       </c>
     </row>
     <row r="13">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>812636.0953751173</v>
+        <v>812636.0953751171</v>
       </c>
     </row>
   </sheetData>
@@ -26316,46 +26316,46 @@
         <v>615781.3273982124</v>
       </c>
       <c r="C2" t="n">
-        <v>615781.3273982124</v>
+        <v>615781.3273982126</v>
       </c>
       <c r="D2" t="n">
-        <v>615781.3273982123</v>
+        <v>615781.3273982125</v>
       </c>
       <c r="E2" t="n">
         <v>605359.9497675044</v>
       </c>
       <c r="F2" t="n">
-        <v>605359.9497675045</v>
+        <v>605359.9497675042</v>
       </c>
       <c r="G2" t="n">
-        <v>605359.9497675045</v>
+        <v>605359.9497675041</v>
       </c>
       <c r="H2" t="n">
         <v>605359.9497675046</v>
       </c>
       <c r="I2" t="n">
-        <v>605359.9497675044</v>
+        <v>605359.9497675041</v>
       </c>
       <c r="J2" t="n">
-        <v>605359.9497675046</v>
+        <v>605359.9497675041</v>
       </c>
       <c r="K2" t="n">
-        <v>605359.9497675044</v>
+        <v>605359.9497675042</v>
       </c>
       <c r="L2" t="n">
+        <v>605359.9497675042</v>
+      </c>
+      <c r="M2" t="n">
+        <v>605359.949767504</v>
+      </c>
+      <c r="N2" t="n">
         <v>605359.9497675045</v>
-      </c>
-      <c r="M2" t="n">
-        <v>605359.9497675047</v>
-      </c>
-      <c r="N2" t="n">
-        <v>605359.9497675044</v>
       </c>
       <c r="O2" t="n">
         <v>605359.9497675044</v>
       </c>
       <c r="P2" t="n">
-        <v>605359.9497675047</v>
+        <v>605359.9497675045</v>
       </c>
     </row>
     <row r="3">
@@ -26365,16 +26365,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>789845.9331222384</v>
+        <v>789845.933122243</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>2553.741448476983</v>
+        <v>2553.741448472796</v>
       </c>
       <c r="E3" t="n">
-        <v>775624.2722329922</v>
+        <v>775624.2722329923</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>128024.1174663867</v>
+        <v>128024.1174663868</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26417,49 +26417,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>184436.3405408963</v>
+        <v>184436.3405408955</v>
       </c>
       <c r="C4" t="n">
-        <v>184436.3405408963</v>
+        <v>184436.3405408956</v>
       </c>
       <c r="D4" t="n">
         <v>183932.5854660025</v>
       </c>
       <c r="E4" t="n">
-        <v>6287.480531695051</v>
+        <v>6287.480531695104</v>
       </c>
       <c r="F4" t="n">
-        <v>6287.480531695051</v>
+        <v>6287.480531695088</v>
       </c>
       <c r="G4" t="n">
-        <v>6287.480531695051</v>
+        <v>6287.480531695052</v>
       </c>
       <c r="H4" t="n">
         <v>6287.480531695052</v>
       </c>
       <c r="I4" t="n">
-        <v>6287.480531695051</v>
+        <v>6287.480531695052</v>
       </c>
       <c r="J4" t="n">
-        <v>6287.480531695051</v>
+        <v>6287.480531695052</v>
       </c>
       <c r="K4" t="n">
-        <v>6287.480531695106</v>
+        <v>6287.480531695052</v>
       </c>
       <c r="L4" t="n">
-        <v>6287.480531695051</v>
+        <v>6287.480531695052</v>
       </c>
       <c r="M4" t="n">
-        <v>6287.480531695051</v>
+        <v>6287.480531695052</v>
       </c>
       <c r="N4" t="n">
-        <v>6287.480531695051</v>
+        <v>6287.480531695052</v>
       </c>
       <c r="O4" t="n">
-        <v>6287.480531695051</v>
+        <v>6287.480531695052</v>
       </c>
       <c r="P4" t="n">
-        <v>6287.480531695051</v>
+        <v>6287.480531695052</v>
       </c>
     </row>
     <row r="5">
@@ -26469,13 +26469,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>86566.12012538436</v>
+        <v>86566.12012538445</v>
       </c>
       <c r="C5" t="n">
-        <v>86566.12012538436</v>
+        <v>86566.12012538445</v>
       </c>
       <c r="D5" t="n">
-        <v>86631.12555917783</v>
+        <v>86631.1255591778</v>
       </c>
       <c r="E5" t="n">
         <v>101122.5298239071</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-445067.0663903067</v>
+        <v>-445067.0663903106</v>
       </c>
       <c r="C6" t="n">
-        <v>344778.8667319317</v>
+        <v>344778.8667319326</v>
       </c>
       <c r="D6" t="n">
-        <v>342663.8749245549</v>
+        <v>342663.8749245594</v>
       </c>
       <c r="E6" t="n">
-        <v>-277674.3328210901</v>
+        <v>-278021.7120754471</v>
       </c>
       <c r="F6" t="n">
-        <v>497949.9394119023</v>
+        <v>497602.5601575451</v>
       </c>
       <c r="G6" t="n">
-        <v>497949.9394119023</v>
+        <v>497602.560157545</v>
       </c>
       <c r="H6" t="n">
-        <v>497949.9394119024</v>
+        <v>497602.5601575454</v>
       </c>
       <c r="I6" t="n">
-        <v>497949.9394119022</v>
+        <v>497602.560157545</v>
       </c>
       <c r="J6" t="n">
-        <v>325532.7980297621</v>
+        <v>325185.4187754047</v>
       </c>
       <c r="K6" t="n">
-        <v>497949.9394119022</v>
+        <v>497602.5601575451</v>
       </c>
       <c r="L6" t="n">
-        <v>497949.9394119023</v>
+        <v>497602.5601575451</v>
       </c>
       <c r="M6" t="n">
-        <v>369925.8219455158</v>
+        <v>369578.4426911581</v>
       </c>
       <c r="N6" t="n">
-        <v>497949.9394119022</v>
+        <v>497602.5601575453</v>
       </c>
       <c r="O6" t="n">
-        <v>497949.9394119022</v>
+        <v>497602.5601575452</v>
       </c>
       <c r="P6" t="n">
-        <v>497949.9394119025</v>
+        <v>497602.5601575453</v>
       </c>
     </row>
   </sheetData>
@@ -26694,19 +26694,19 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>3.250528837155401e-14</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>3.250528837155401e-14</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>3.250528837155401e-14</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>3.250528837155401e-14</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>3.250528837155401e-14</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -26737,10 +26737,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>590.4941997053372</v>
+        <v>590.4941997053421</v>
       </c>
       <c r="C3" t="n">
-        <v>590.4941997053372</v>
+        <v>590.4941997053421</v>
       </c>
       <c r="D3" t="n">
         <v>593.4761003380651</v>
@@ -26789,13 +26789,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>658.9760949310528</v>
+        <v>658.9760949310524</v>
       </c>
       <c r="C4" t="n">
-        <v>658.9760949310528</v>
+        <v>658.9760949310524</v>
       </c>
       <c r="D4" t="n">
-        <v>658.9760949310528</v>
+        <v>658.9760949310524</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
@@ -26916,7 +26916,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>3.250528837155401e-14</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -26959,13 +26959,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>590.4941997053372</v>
+        <v>590.4941997053421</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>2.981900632727843</v>
+        <v>2.981900632722954</v>
       </c>
       <c r="E3" t="n">
         <v>774.4994000036087</v>
@@ -27011,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>658.9760949310528</v>
+        <v>658.9760949310524</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>513.7321931685956</v>
+        <v>513.7321931685959</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>658.9760949310527</v>
+        <v>658.9760949310524</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>513.7321931685956</v>
+        <v>513.7321931685959</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27153,7 +27153,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>3.250528837155401e-14</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -27257,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>658.9760949310528</v>
+        <v>658.9760949310524</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>513.7321931685956</v>
+        <v>513.7321931685959</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27384,22 +27384,22 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>153.079996247373</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>118.9581905386872</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27432,13 +27432,13 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>20.95308390208592</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>251.1557452255192</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
@@ -27447,7 +27447,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27539,7 +27539,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>47.20705402300224</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
         <v>148.6154730182124</v>
@@ -27548,19 +27548,19 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>166.9261537524328</v>
+        <v>166.9261537524327</v>
       </c>
       <c r="H4" t="n">
-        <v>152.7599048465901</v>
+        <v>152.75990484659</v>
       </c>
       <c r="I4" t="n">
-        <v>123.4282648842213</v>
+        <v>123.428264884221</v>
       </c>
       <c r="J4" t="n">
-        <v>18.07600977063332</v>
+        <v>18.07600977063269</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27587,22 +27587,22 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>205.4595917937734</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2609479597986</v>
+        <v>4.869166975240944</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -27615,28 +27615,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>170.4840264287398</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>325.7258091117403</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>118.9581905386872</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27663,10 +27663,10 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0.7530123241028832</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>154.9260532011785</v>
+        <v>154.9260532011781</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -27773,13 +27773,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
@@ -27788,16 +27788,16 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>166.9261537524328</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>152.75990484659</v>
       </c>
       <c r="I7" t="n">
-        <v>123.4282648842213</v>
+        <v>123.428264884221</v>
       </c>
       <c r="J7" t="n">
-        <v>18.07600977063332</v>
+        <v>18.07600977063269</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27821,25 +27821,25 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>129.4149600371269</v>
+        <v>129.4149600371265</v>
       </c>
       <c r="S7" t="n">
-        <v>57.94772293843241</v>
+        <v>205.4595917937732</v>
       </c>
       <c r="T7" t="n">
-        <v>223.3958800207158</v>
+        <v>223.3958800207157</v>
       </c>
       <c r="U7" t="n">
         <v>286.2609479597986</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>221.5298211854343</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -27852,10 +27852,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
@@ -27873,7 +27873,7 @@
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>118.4960408938903</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27903,25 +27903,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>79.02882688808212</v>
+        <v>154.6528871281402</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>251.1547862223006</v>
+        <v>206.5064226516091</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -28010,10 +28010,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
@@ -28025,7 +28025,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.9207765545704</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -28058,22 +28058,22 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>117.7440779036866</v>
+        <v>129.1731816677913</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>223.3729047207587</v>
+        <v>57.87052716388695</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.260654658097</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
@@ -28295,7 +28295,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>3.796617681797508e-12</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -28377,7 +28377,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>8.119788366582661e-13</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
@@ -29511,7 +29511,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1.193711796076968e-12</v>
+        <v>0</v>
       </c>
       <c r="C29" t="n">
         <v>0</v>
@@ -31041,49 +31041,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>2.373846028966178</v>
+        <v>2.373846028966198</v>
       </c>
       <c r="H2" t="n">
-        <v>24.31115064414988</v>
+        <v>24.31115064415008</v>
       </c>
       <c r="I2" t="n">
-        <v>91.51769903171866</v>
+        <v>91.51769903171942</v>
       </c>
       <c r="J2" t="n">
-        <v>201.4772144009683</v>
+        <v>201.47721440097</v>
       </c>
       <c r="K2" t="n">
-        <v>301.9621168071067</v>
+        <v>301.9621168071092</v>
       </c>
       <c r="L2" t="n">
-        <v>374.6107072160805</v>
+        <v>374.6107072160835</v>
       </c>
       <c r="M2" t="n">
-        <v>416.8265915337077</v>
+        <v>416.8265915337112</v>
       </c>
       <c r="N2" t="n">
-        <v>423.5712815635079</v>
+        <v>423.5712815635114</v>
       </c>
       <c r="O2" t="n">
-        <v>399.9663501129754</v>
+        <v>399.9663501129788</v>
       </c>
       <c r="P2" t="n">
-        <v>341.3620262728729</v>
+        <v>341.3620262728757</v>
       </c>
       <c r="Q2" t="n">
-        <v>256.3486653605215</v>
+        <v>256.3486653605236</v>
       </c>
       <c r="R2" t="n">
-        <v>149.1161056170468</v>
+        <v>149.116105617048</v>
       </c>
       <c r="S2" t="n">
-        <v>54.09401638506684</v>
+        <v>54.09401638506728</v>
       </c>
       <c r="T2" t="n">
-        <v>10.39151099179945</v>
+        <v>10.39151099179954</v>
       </c>
       <c r="U2" t="n">
-        <v>0.1899076823172942</v>
+        <v>0.1899076823172958</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31120,49 +31120,49 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>1.270119599366197</v>
+        <v>1.270119599366208</v>
       </c>
       <c r="H3" t="n">
-        <v>12.2666813938788</v>
+        <v>12.2666813938789</v>
       </c>
       <c r="I3" t="n">
-        <v>43.72999497817828</v>
+        <v>43.72999497817865</v>
       </c>
       <c r="J3" t="n">
-        <v>119.9984486401195</v>
+        <v>119.9984486401205</v>
       </c>
       <c r="K3" t="n">
-        <v>205.0964617976547</v>
+        <v>205.0964617976564</v>
       </c>
       <c r="L3" t="n">
-        <v>275.7775033623842</v>
+        <v>275.7775033623865</v>
       </c>
       <c r="M3" t="n">
-        <v>321.8193388394088</v>
+        <v>321.8193388394114</v>
       </c>
       <c r="N3" t="n">
-        <v>330.3369391351584</v>
+        <v>330.3369391351612</v>
       </c>
       <c r="O3" t="n">
-        <v>302.1937627492022</v>
+        <v>302.1937627492047</v>
       </c>
       <c r="P3" t="n">
-        <v>242.5371364789715</v>
+        <v>242.5371364789735</v>
       </c>
       <c r="Q3" t="n">
-        <v>162.1296527190956</v>
+        <v>162.129652719097</v>
       </c>
       <c r="R3" t="n">
-        <v>78.85882916064865</v>
+        <v>78.85882916064931</v>
       </c>
       <c r="S3" t="n">
-        <v>23.59191448822737</v>
+        <v>23.59191448822757</v>
       </c>
       <c r="T3" t="n">
-        <v>5.119473297445327</v>
+        <v>5.11947329744537</v>
       </c>
       <c r="U3" t="n">
-        <v>0.08356049995830248</v>
+        <v>0.08356049995830317</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,49 +31199,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>1.064825606026018</v>
+        <v>1.064825606026027</v>
       </c>
       <c r="H4" t="n">
-        <v>9.467267660849512</v>
+        <v>9.46726766084959</v>
       </c>
       <c r="I4" t="n">
-        <v>32.02221004303698</v>
+        <v>32.02221004303725</v>
       </c>
       <c r="J4" t="n">
-        <v>75.28317034603946</v>
+        <v>75.28317034604008</v>
       </c>
       <c r="K4" t="n">
-        <v>123.7133749546591</v>
+        <v>123.7133749546602</v>
       </c>
       <c r="L4" t="n">
-        <v>158.3105269177227</v>
+        <v>158.310526917724</v>
       </c>
       <c r="M4" t="n">
-        <v>166.9162538609693</v>
+        <v>166.9162538609707</v>
       </c>
       <c r="N4" t="n">
-        <v>162.947358420327</v>
+        <v>162.9473584203284</v>
       </c>
       <c r="O4" t="n">
-        <v>150.5082592953866</v>
+        <v>150.5082592953879</v>
       </c>
       <c r="P4" t="n">
-        <v>128.7858169324558</v>
+        <v>128.7858169324568</v>
       </c>
       <c r="Q4" t="n">
-        <v>89.16462415550592</v>
+        <v>89.16462415550666</v>
       </c>
       <c r="R4" t="n">
-        <v>47.87843134004257</v>
+        <v>47.87843134004297</v>
       </c>
       <c r="S4" t="n">
-        <v>18.55700624319887</v>
+        <v>18.55700624319902</v>
       </c>
       <c r="T4" t="n">
-        <v>4.549709407565711</v>
+        <v>4.549709407565749</v>
       </c>
       <c r="U4" t="n">
-        <v>0.05808139669232831</v>
+        <v>0.05808139669232879</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31278,49 +31278,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>2.373846028966178</v>
+        <v>2.373846028966198</v>
       </c>
       <c r="H5" t="n">
-        <v>24.31115064414988</v>
+        <v>24.31115064415008</v>
       </c>
       <c r="I5" t="n">
-        <v>91.51769903171866</v>
+        <v>91.51769903171942</v>
       </c>
       <c r="J5" t="n">
-        <v>201.4772144009683</v>
+        <v>201.47721440097</v>
       </c>
       <c r="K5" t="n">
-        <v>301.9621168071067</v>
+        <v>301.9621168071092</v>
       </c>
       <c r="L5" t="n">
-        <v>374.6107072160805</v>
+        <v>374.6107072160835</v>
       </c>
       <c r="M5" t="n">
-        <v>416.8265915337077</v>
+        <v>416.8265915337112</v>
       </c>
       <c r="N5" t="n">
-        <v>423.5712815635079</v>
+        <v>423.5712815635114</v>
       </c>
       <c r="O5" t="n">
-        <v>399.9663501129754</v>
+        <v>399.9663501129788</v>
       </c>
       <c r="P5" t="n">
-        <v>341.3620262728729</v>
+        <v>341.3620262728757</v>
       </c>
       <c r="Q5" t="n">
-        <v>256.3486653605215</v>
+        <v>256.3486653605236</v>
       </c>
       <c r="R5" t="n">
-        <v>149.1161056170468</v>
+        <v>149.116105617048</v>
       </c>
       <c r="S5" t="n">
-        <v>54.09401638506684</v>
+        <v>54.09401638506728</v>
       </c>
       <c r="T5" t="n">
-        <v>10.39151099179945</v>
+        <v>10.39151099179954</v>
       </c>
       <c r="U5" t="n">
-        <v>0.1899076823172942</v>
+        <v>0.1899076823172958</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31357,49 +31357,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>1.270119599366197</v>
+        <v>1.270119599366208</v>
       </c>
       <c r="H6" t="n">
-        <v>12.2666813938788</v>
+        <v>12.2666813938789</v>
       </c>
       <c r="I6" t="n">
-        <v>43.72999497817828</v>
+        <v>43.72999497817865</v>
       </c>
       <c r="J6" t="n">
-        <v>119.9984486401195</v>
+        <v>119.9984486401205</v>
       </c>
       <c r="K6" t="n">
-        <v>205.0964617976547</v>
+        <v>205.0964617976564</v>
       </c>
       <c r="L6" t="n">
-        <v>275.7775033623842</v>
+        <v>275.7775033623865</v>
       </c>
       <c r="M6" t="n">
-        <v>321.8193388394088</v>
+        <v>321.8193388394114</v>
       </c>
       <c r="N6" t="n">
-        <v>330.3369391351584</v>
+        <v>330.3369391351612</v>
       </c>
       <c r="O6" t="n">
-        <v>302.1937627492022</v>
+        <v>302.1937627492047</v>
       </c>
       <c r="P6" t="n">
-        <v>242.5371364789715</v>
+        <v>242.5371364789735</v>
       </c>
       <c r="Q6" t="n">
-        <v>162.1296527190956</v>
+        <v>162.129652719097</v>
       </c>
       <c r="R6" t="n">
-        <v>78.85882916064865</v>
+        <v>78.85882916064931</v>
       </c>
       <c r="S6" t="n">
-        <v>23.59191448822737</v>
+        <v>23.59191448822757</v>
       </c>
       <c r="T6" t="n">
-        <v>5.119473297445327</v>
+        <v>5.11947329744537</v>
       </c>
       <c r="U6" t="n">
-        <v>0.08356049995830248</v>
+        <v>0.08356049995830317</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,49 +31436,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1.064825606026018</v>
+        <v>1.064825606026027</v>
       </c>
       <c r="H7" t="n">
-        <v>9.467267660849512</v>
+        <v>9.46726766084959</v>
       </c>
       <c r="I7" t="n">
-        <v>32.02221004303698</v>
+        <v>32.02221004303725</v>
       </c>
       <c r="J7" t="n">
-        <v>75.28317034603946</v>
+        <v>75.28317034604008</v>
       </c>
       <c r="K7" t="n">
-        <v>123.7133749546591</v>
+        <v>123.7133749546602</v>
       </c>
       <c r="L7" t="n">
-        <v>158.3105269177227</v>
+        <v>158.310526917724</v>
       </c>
       <c r="M7" t="n">
-        <v>166.9162538609693</v>
+        <v>166.9162538609707</v>
       </c>
       <c r="N7" t="n">
-        <v>162.947358420327</v>
+        <v>162.9473584203284</v>
       </c>
       <c r="O7" t="n">
-        <v>150.5082592953866</v>
+        <v>150.5082592953879</v>
       </c>
       <c r="P7" t="n">
-        <v>128.7858169324558</v>
+        <v>128.7858169324568</v>
       </c>
       <c r="Q7" t="n">
-        <v>89.16462415550592</v>
+        <v>89.16462415550666</v>
       </c>
       <c r="R7" t="n">
-        <v>47.87843134004257</v>
+        <v>47.87843134004297</v>
       </c>
       <c r="S7" t="n">
-        <v>18.55700624319887</v>
+        <v>18.55700624319902</v>
       </c>
       <c r="T7" t="n">
-        <v>4.549709407565711</v>
+        <v>4.549709407565749</v>
       </c>
       <c r="U7" t="n">
-        <v>0.05808139669232831</v>
+        <v>0.05808139669232879</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31837,7 +31837,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I12" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J12" t="n">
         <v>277.9958514420755</v>
@@ -31852,16 +31852,16 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N12" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O12" t="n">
-        <v>370.9642309107746</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q12" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
         <v>145.679503963964</v>
@@ -32074,7 +32074,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J15" t="n">
         <v>277.9958514420755</v>
@@ -32086,19 +32086,19 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M15" t="n">
-        <v>339.9772972286971</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071785</v>
+        <v>463.9598929192557</v>
       </c>
       <c r="O15" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
         <v>145.679503963964</v>
@@ -32311,7 +32311,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
         <v>277.9958514420755</v>
@@ -32323,22 +32323,22 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P18" t="n">
-        <v>165.2255134509767</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
         <v>54.65449286742438</v>
@@ -32554,25 +32554,25 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>475.1391886422585</v>
+        <v>173.8200325543357</v>
       </c>
       <c r="L21" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
-        <v>338.1920576279222</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
         <v>145.679503963964</v>
@@ -32785,7 +32785,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
         <v>277.9958514420755</v>
@@ -32794,22 +32794,22 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>282.8216163968503</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
         <v>145.679503963964</v>
@@ -33034,16 +33034,16 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>574.2721069128561</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
         <v>139.9817740860215</v>
@@ -33259,7 +33259,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
         <v>277.9958514420755</v>
@@ -33271,22 +33271,22 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
-        <v>302.967544750805</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>142.5962444444444</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
         <v>54.65449286742438</v>
@@ -33508,19 +33508,19 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862121</v>
+        <v>446.0127311990643</v>
       </c>
       <c r="N33" t="n">
-        <v>359.7096985496635</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
         <v>145.679503963964</v>
@@ -33733,10 +33733,10 @@
         <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
         <v>475.1391886422585</v>
@@ -33748,13 +33748,13 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
-        <v>746.4857620875799</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>142.5962444444444</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
         <v>139.9817740860215</v>
@@ -33891,7 +33891,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I38" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J38" t="n">
         <v>466.7546155663283</v>
@@ -33976,10 +33976,10 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>531.8166820790245</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
         <v>745.5466476862121</v>
@@ -33988,16 +33988,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>142.5962444444444</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
         <v>54.65449286742438</v>
@@ -34207,7 +34207,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
         <v>277.9958514420755</v>
@@ -34219,22 +34219,22 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
-        <v>379.4203056753705</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
         <v>54.65449286742438</v>
@@ -34444,7 +34444,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
         <v>277.9958514420755</v>
@@ -34459,16 +34459,16 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>370.9642309107746</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
         <v>145.679503963964</v>
@@ -34698,28 +34698,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>20.43130987428205</v>
+        <v>20.43130987428373</v>
       </c>
       <c r="K2" t="n">
-        <v>81.87226576212618</v>
+        <v>81.87226576212868</v>
       </c>
       <c r="L2" t="n">
-        <v>556.5055067965436</v>
+        <v>556.5055067965468</v>
       </c>
       <c r="M2" t="n">
-        <v>635.9938917992674</v>
+        <v>635.993891799271</v>
       </c>
       <c r="N2" t="n">
-        <v>631.5051423789012</v>
+        <v>631.5051423789046</v>
       </c>
       <c r="O2" t="n">
-        <v>169.8681386912887</v>
+        <v>538.7989603445037</v>
       </c>
       <c r="P2" t="n">
-        <v>431.927738689086</v>
+        <v>110.1290305176062</v>
       </c>
       <c r="Q2" t="n">
-        <v>81.17508896782488</v>
+        <v>34.04297548607414</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34777,28 +34777,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>119.2518573138617</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>67.25502282329575</v>
+        <v>67.25502282329745</v>
       </c>
       <c r="L3" t="n">
-        <v>508.0634688859691</v>
+        <v>508.0634688859715</v>
       </c>
       <c r="M3" t="n">
-        <v>179.6853049173905</v>
+        <v>645.390368667393</v>
       </c>
       <c r="N3" t="n">
-        <v>522.3129273638145</v>
+        <v>385.9370086635117</v>
       </c>
       <c r="O3" t="n">
-        <v>553.4598375814872</v>
+        <v>553.4598375814898</v>
       </c>
       <c r="P3" t="n">
-        <v>427.0254977045784</v>
+        <v>427.0254977045804</v>
       </c>
       <c r="Q3" t="n">
-        <v>232.2251663689232</v>
+        <v>22.14787863307546</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34859,25 +34859,25 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>101.4438831287763</v>
+        <v>101.4438831287773</v>
       </c>
       <c r="L4" t="n">
-        <v>185.9005521780389</v>
+        <v>185.9005521780402</v>
       </c>
       <c r="M4" t="n">
-        <v>206.5001308228099</v>
+        <v>206.5001308228113</v>
       </c>
       <c r="N4" t="n">
-        <v>207.0795307995556</v>
+        <v>207.0795307995569</v>
       </c>
       <c r="O4" t="n">
-        <v>175.0933872094263</v>
+        <v>175.0933872094276</v>
       </c>
       <c r="P4" t="n">
-        <v>126.0643761973493</v>
+        <v>126.0643761973503</v>
       </c>
       <c r="Q4" t="n">
-        <v>3.002580903811534</v>
+        <v>3.002580903812273</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34935,28 +34935,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>189.5279250463558</v>
+        <v>20.43130987428373</v>
       </c>
       <c r="K5" t="n">
-        <v>81.87226576212618</v>
+        <v>406.0176783332934</v>
       </c>
       <c r="L5" t="n">
-        <v>556.5055067965436</v>
+        <v>556.5055067965468</v>
       </c>
       <c r="M5" t="n">
-        <v>358.2611425982808</v>
+        <v>186.4803583064384</v>
       </c>
       <c r="N5" t="n">
-        <v>194.158217966917</v>
+        <v>423.2051955195558</v>
       </c>
       <c r="O5" t="n">
-        <v>550.668319954034</v>
+        <v>550.6683199540374</v>
       </c>
       <c r="P5" t="n">
-        <v>431.927738689086</v>
+        <v>431.9277386890888</v>
       </c>
       <c r="Q5" t="n">
-        <v>246.3579661459767</v>
+        <v>34.04297548607414</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35017,25 +35017,25 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>331.7202598358743</v>
+        <v>67.25502282329745</v>
       </c>
       <c r="L6" t="n">
-        <v>508.0634688859691</v>
+        <v>508.0634688859715</v>
       </c>
       <c r="M6" t="n">
-        <v>291.6710769281651</v>
+        <v>645.390368667393</v>
       </c>
       <c r="N6" t="n">
-        <v>658.9760949310528</v>
+        <v>658.9760949310524</v>
       </c>
       <c r="O6" t="n">
-        <v>159.5975183047577</v>
+        <v>553.4598375814898</v>
       </c>
       <c r="P6" t="n">
-        <v>427.0254977045784</v>
+        <v>153.98641143704</v>
       </c>
       <c r="Q6" t="n">
-        <v>232.2251663689232</v>
+        <v>22.14787863307546</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35096,25 +35096,25 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>101.4438831287763</v>
+        <v>101.4438831287773</v>
       </c>
       <c r="L7" t="n">
-        <v>185.9005521780389</v>
+        <v>185.9005521780402</v>
       </c>
       <c r="M7" t="n">
-        <v>206.5001308228099</v>
+        <v>206.5001308228113</v>
       </c>
       <c r="N7" t="n">
-        <v>207.0795307995556</v>
+        <v>207.0795307995569</v>
       </c>
       <c r="O7" t="n">
-        <v>175.0933872094263</v>
+        <v>175.0933872094276</v>
       </c>
       <c r="P7" t="n">
-        <v>126.0643761973493</v>
+        <v>126.0643761973503</v>
       </c>
       <c r="Q7" t="n">
-        <v>3.002580903811534</v>
+        <v>3.002580903812273</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35175,22 +35175,22 @@
         <v>190.5453525391276</v>
       </c>
       <c r="K8" t="n">
-        <v>83.39712583292157</v>
+        <v>407.5425384040863</v>
       </c>
       <c r="L8" t="n">
-        <v>140.7360160012659</v>
+        <v>392.3166085831123</v>
       </c>
       <c r="M8" t="n">
-        <v>638.0987989730422</v>
+        <v>188.5852654802098</v>
       </c>
       <c r="N8" t="n">
-        <v>633.6441091513602</v>
+        <v>196.2971847393761</v>
       </c>
       <c r="O8" t="n">
         <v>552.6880856233105</v>
       </c>
       <c r="P8" t="n">
-        <v>122.5171092070794</v>
+        <v>433.6515619588832</v>
       </c>
       <c r="Q8" t="n">
         <v>247.6524856312129</v>
@@ -35257,22 +35257,22 @@
         <v>332.7559639452625</v>
       </c>
       <c r="L9" t="n">
-        <v>138.615755571408</v>
+        <v>509.4561008748672</v>
       </c>
       <c r="M9" t="n">
-        <v>647.0155045122269</v>
+        <v>181.3104407622271</v>
       </c>
       <c r="N9" t="n">
-        <v>658.9760949310528</v>
+        <v>248.7689815793668</v>
       </c>
       <c r="O9" t="n">
         <v>554.9858674269929</v>
       </c>
       <c r="P9" t="n">
-        <v>133.2557271303868</v>
+        <v>428.2502711927643</v>
       </c>
       <c r="Q9" t="n">
-        <v>22.96660727472423</v>
+        <v>233.0438950105733</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35409,7 +35409,7 @@
         <v>1.539690236317256</v>
       </c>
       <c r="J11" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396425</v>
       </c>
       <c r="K11" t="n">
         <v>479.454324036777</v>
@@ -35485,7 +35485,7 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J12" t="n">
         <v>151.1582247754088</v>
@@ -35500,16 +35500,16 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O12" t="n">
-        <v>228.3679864663302</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35722,7 +35722,7 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J15" t="n">
         <v>151.1582247754088</v>
@@ -35734,19 +35734,19 @@
         <v>500.328895167433</v>
       </c>
       <c r="M15" t="n">
-        <v>197.8432633066788</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238452</v>
+        <v>332.6181808359224</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35886,7 +35886,7 @@
         <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.4543240367776</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L17" t="n">
         <v>632.0799921462688</v>
@@ -35959,7 +35959,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J18" t="n">
         <v>151.1582247754088</v>
@@ -35971,22 +35971,22 @@
         <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P18" t="n">
-        <v>31.25110603664647</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36129,13 +36129,13 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M20" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902952</v>
       </c>
       <c r="N20" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O20" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P20" t="n">
         <v>559.5874541683811</v>
@@ -36202,25 +36202,25 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
-        <v>337.2977496678996</v>
+        <v>35.97859357997668</v>
       </c>
       <c r="L21" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
-        <v>196.0580237059039</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36433,7 +36433,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J24" t="n">
         <v>151.1582247754088</v>
@@ -36442,22 +36442,22 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
-        <v>140.6875824748321</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36682,16 +36682,16 @@
         <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>431.6758624684117</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
@@ -36907,7 +36907,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J30" t="n">
         <v>151.1582247754088</v>
@@ -36919,22 +36919,22 @@
         <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
-        <v>160.8335108287866</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>0</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37156,19 +37156,19 @@
         <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
-        <v>603.4126137641938</v>
+        <v>303.8786972770459</v>
       </c>
       <c r="N33" t="n">
-        <v>228.3679864663302</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>0</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37311,7 +37311,7 @@
         <v>479.454324036777</v>
       </c>
       <c r="L35" t="n">
-        <v>632.0799921462693</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M35" t="n">
         <v>735.3001107902948</v>
@@ -37381,10 +37381,10 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
         <v>337.2977496678996</v>
@@ -37396,13 +37396,13 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>615.1440500042467</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>0</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
         <v>0</v>
@@ -37539,7 +37539,7 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
@@ -37624,10 +37624,10 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>393.2623022991504</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
         <v>603.4126137641938</v>
@@ -37636,16 +37636,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>0</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37782,7 +37782,7 @@
         <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367776</v>
       </c>
       <c r="L41" t="n">
         <v>632.0799921462688</v>
@@ -37791,7 +37791,7 @@
         <v>735.3001107902948</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193519</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O41" t="n">
         <v>696.488651224316</v>
@@ -37855,7 +37855,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J42" t="n">
         <v>151.1582247754088</v>
@@ -37867,22 +37867,22 @@
         <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
-        <v>237.2862717533522</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -38019,10 +38019,10 @@
         <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367776</v>
       </c>
       <c r="L44" t="n">
-        <v>632.0799921462693</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M44" t="n">
         <v>735.3001107902948</v>
@@ -38092,7 +38092,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J45" t="n">
         <v>151.1582247754088</v>
@@ -38107,16 +38107,16 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>228.3679864663302</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_9_30.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_9_30.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2364519.082818407</v>
+        <v>2366279.613121194</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283185</v>
+        <v>416855.1052283183</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>9575802.677849874</v>
+        <v>9575802.677849876</v>
       </c>
     </row>
     <row r="11">
@@ -670,16 +670,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>253.7960494943385</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>12.92889148616885</v>
+        <v>412.9288914861689</v>
       </c>
       <c r="H2" t="n">
         <v>315.1636514716171</v>
       </c>
       <c r="I2" t="n">
-        <v>118.9581905386865</v>
+        <v>118.9581905386867</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -706,13 +706,13 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0.7530123241016327</v>
+        <v>0.7530123241020306</v>
       </c>
       <c r="S2" t="n">
-        <v>154.9260532011781</v>
+        <v>154.9260532011782</v>
       </c>
       <c r="T2" t="n">
-        <v>212.7043385723318</v>
+        <v>45.86228098101138</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -727,7 +727,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -755,10 +755,10 @@
         <v>136.0733975638444</v>
       </c>
       <c r="H3" t="n">
-        <v>99.96876284261756</v>
+        <v>99.96876284261759</v>
       </c>
       <c r="I3" t="n">
-        <v>45.66663787323643</v>
+        <v>45.66663787323655</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -785,13 +785,13 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>21.29900499199383</v>
+        <v>21.29900499199404</v>
       </c>
       <c r="S3" t="n">
         <v>148.0912566156103</v>
       </c>
       <c r="T3" t="n">
-        <v>195.0452553973762</v>
+        <v>195.0452553973763</v>
       </c>
       <c r="U3" t="n">
         <v>225.8578215810165</v>
@@ -816,22 +816,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.9261537524327</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -864,16 +864,16 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>129.4149600371265</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>205.4595917937732</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>223.3958800207157</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>281.3917809845576</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -885,7 +885,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>30.6078221383912</v>
       </c>
     </row>
     <row r="5">
@@ -895,28 +895,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>264.0481596692536</v>
       </c>
       <c r="F5" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>87.20308237442863</v>
+        <v>412.9288914861689</v>
       </c>
       <c r="H5" t="n">
-        <v>315.1636514716171</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>118.9581905386865</v>
+        <v>118.9581905386867</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -943,28 +943,28 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0.7530123241016327</v>
+        <v>0.7530123241020306</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>154.9260532011782</v>
       </c>
       <c r="T5" t="n">
         <v>212.7043385723318</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.1557452255192</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -992,10 +992,10 @@
         <v>136.0733975638444</v>
       </c>
       <c r="H6" t="n">
-        <v>99.96876284261756</v>
+        <v>99.96876284261759</v>
       </c>
       <c r="I6" t="n">
-        <v>45.66663787323643</v>
+        <v>45.66663787323655</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1022,13 +1022,13 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>21.29900499199383</v>
+        <v>21.29900499199404</v>
       </c>
       <c r="S6" t="n">
         <v>148.0912566156103</v>
       </c>
       <c r="T6" t="n">
-        <v>195.0452553973762</v>
+        <v>195.0452553973763</v>
       </c>
       <c r="U6" t="n">
         <v>225.8578215810165</v>
@@ -1071,13 +1071,13 @@
         <v>166.9261537524327</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>12.5318123677583</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>18.07600977063289</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1113,7 +1113,7 @@
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>30.60782213839367</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -1132,10 +1132,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -1144,16 +1144,16 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>412.9169039459368</v>
+        <v>12.9169039459368</v>
       </c>
       <c r="H8" t="n">
-        <v>315.0408840752156</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>118.4960408938903</v>
+        <v>87.37391181622766</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1183,25 +1183,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>154.6528871281402</v>
       </c>
       <c r="T8" t="n">
         <v>212.651863114966</v>
       </c>
       <c r="U8" t="n">
-        <v>44.64836357069156</v>
+        <v>251.1547862223006</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1296,19 +1296,19 @@
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>152.7120966692326</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -1341,16 +1341,16 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>205.3658819001186</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>165.5023775568717</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>83.10987243851008</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
@@ -1378,10 +1378,10 @@
         <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722614</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417109</v>
       </c>
       <c r="G11" t="n">
         <v>409.8033385187866</v>
@@ -1542,13 +1542,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1578,22 +1578,22 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>181.0262860016446</v>
+        <v>59.66990246485226</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
         <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
-        <v>178.513465597807</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -1657,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695439</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1672,7 +1672,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784686</v>
       </c>
       <c r="Y14" t="n">
         <v>386.2379386560536</v>
@@ -1770,7 +1770,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>62.50448303558164</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
@@ -1785,7 +1785,7 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,19 +1812,19 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>112.1382188876854</v>
       </c>
       <c r="W16" t="n">
         <v>286.522998336591</v>
@@ -1894,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -2095,7 +2095,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H20" t="n">
         <v>283.1540821444137</v>
@@ -2244,19 +2244,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>119.6760079449695</v>
       </c>
       <c r="I22" t="n">
         <v>81.26583631856553</v>
@@ -2286,16 +2286,16 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
-        <v>147.6895341487364</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -2493,10 +2493,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>83.06560892428168</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2523,10 +2523,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>181.0262860016446</v>
+        <v>108.9065924712588</v>
       </c>
       <c r="T25" t="n">
         <v>217.4054503272883</v>
@@ -2605,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2730,7 +2730,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428527</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2760,7 +2760,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>9.146142788179482</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
@@ -2842,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2949,7 +2949,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>114.2821160880066</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
         <v>167.2468210986278</v>
@@ -2958,10 +2958,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>165.5241382922688</v>
@@ -2997,13 +2997,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>217.4054503272883</v>
+        <v>107.402108275628</v>
       </c>
       <c r="U31" t="n">
         <v>286.1844743892441</v>
@@ -3046,7 +3046,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H32" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444138</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3079,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695534</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3125,7 +3125,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H33" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I33" t="n">
         <v>0</v>
@@ -3158,7 +3158,7 @@
         <v>0</v>
       </c>
       <c r="S33" t="n">
-        <v>117.0286782364134</v>
+        <v>117.0286782364135</v>
       </c>
       <c r="T33" t="n">
         <v>188.3046392154443</v>
@@ -3204,7 +3204,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428122</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3234,7 +3234,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>9.146142788179482</v>
+        <v>66.37524671012171</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
@@ -3283,7 +3283,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H35" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444138</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3316,10 +3316,10 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695534</v>
       </c>
       <c r="T35" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576152</v>
       </c>
       <c r="U35" t="n">
         <v>250.9057009881286</v>
@@ -3362,7 +3362,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H36" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
@@ -3395,7 +3395,7 @@
         <v>0</v>
       </c>
       <c r="S36" t="n">
-        <v>117.0286782364134</v>
+        <v>117.0286782364135</v>
       </c>
       <c r="T36" t="n">
         <v>188.3046392154443</v>
@@ -3435,16 +3435,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>60.64713141731118</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856556</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3477,10 +3477,10 @@
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>286.1844743892441</v>
+        <v>172.0260335000776</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
@@ -3517,10 +3517,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187852</v>
       </c>
       <c r="H38" t="n">
-        <v>283.1540821444132</v>
+        <v>283.1540821444138</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3553,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695534</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3599,7 +3599,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H39" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
@@ -3632,7 +3632,7 @@
         <v>0</v>
       </c>
       <c r="S39" t="n">
-        <v>117.0286782364134</v>
+        <v>117.0286782364135</v>
       </c>
       <c r="T39" t="n">
         <v>188.3046392154443</v>
@@ -3663,22 +3663,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5241382922688</v>
+        <v>99.97427419833727</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3708,7 +3708,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012171</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
@@ -3720,7 +3720,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V40" t="n">
-        <v>215.7213978539445</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
         <v>286.522998336591</v>
@@ -3757,7 +3757,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H41" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444138</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3790,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3836,7 +3836,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H42" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
@@ -3869,7 +3869,7 @@
         <v>0</v>
       </c>
       <c r="S42" t="n">
-        <v>117.0286782364134</v>
+        <v>117.0286782364135</v>
       </c>
       <c r="T42" t="n">
         <v>188.3046392154443</v>
@@ -3897,19 +3897,19 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>170.8317276803708</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>28.75188085811909</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>165.5241382922688</v>
@@ -3918,7 +3918,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856556</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3945,16 +3945,16 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>66.37524671012171</v>
       </c>
       <c r="S43" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
@@ -3991,10 +3991,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187852</v>
       </c>
       <c r="H44" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444138</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4027,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695534</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4073,7 +4073,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H45" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
@@ -4106,7 +4106,7 @@
         <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>117.0286782364134</v>
+        <v>117.0286782364135</v>
       </c>
       <c r="T45" t="n">
         <v>188.3046392154443</v>
@@ -4152,10 +4152,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>83.06560892428168</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>81.26583631856556</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4182,7 +4182,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012171</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
@@ -4194,7 +4194,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>113.6427030833194</v>
       </c>
       <c r="W46" t="n">
         <v>286.522998336591</v>
@@ -4306,49 +4306,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1873.660599164952</v>
+        <v>2432.327262041087</v>
       </c>
       <c r="C2" t="n">
-        <v>1504.69808222454</v>
+        <v>2063.364745100675</v>
       </c>
       <c r="D2" t="n">
-        <v>1146.43238361779</v>
+        <v>1705.099046493925</v>
       </c>
       <c r="E2" t="n">
-        <v>760.6441310195457</v>
+        <v>1319.31079389568</v>
       </c>
       <c r="F2" t="n">
-        <v>504.2844850656685</v>
+        <v>908.324889106073</v>
       </c>
       <c r="G2" t="n">
-        <v>491.224998716003</v>
+        <v>491.2249987160033</v>
       </c>
       <c r="H2" t="n">
-        <v>172.8778760173998</v>
+        <v>172.8778760174001</v>
       </c>
       <c r="I2" t="n">
         <v>52.7180875944842</v>
       </c>
       <c r="J2" t="n">
-        <v>72.94508437002509</v>
+        <v>72.94508437002453</v>
       </c>
       <c r="K2" t="n">
-        <v>153.9986274745325</v>
+        <v>474.9025859199842</v>
       </c>
       <c r="L2" t="n">
-        <v>704.9390792031138</v>
+        <v>1025.843037648564</v>
       </c>
       <c r="M2" t="n">
-        <v>1334.573032084392</v>
+        <v>1655.476990529841</v>
       </c>
       <c r="N2" t="n">
-        <v>1959.763123039507</v>
+        <v>1847.693626317092</v>
       </c>
       <c r="O2" t="n">
-        <v>2493.174093780566</v>
+        <v>2392.855263071588</v>
       </c>
       <c r="P2" t="n">
-        <v>2602.201833992996</v>
+        <v>2602.201833992997</v>
       </c>
       <c r="Q2" t="n">
         <v>2635.90437972421</v>
@@ -4357,25 +4357,25 @@
         <v>2635.143761215016</v>
       </c>
       <c r="S2" t="n">
-        <v>2478.652798385544</v>
+        <v>2478.652798385543</v>
       </c>
       <c r="T2" t="n">
-        <v>2263.799931140764</v>
+        <v>2432.327262041087</v>
       </c>
       <c r="U2" t="n">
-        <v>2263.799931140764</v>
+        <v>2432.327262041087</v>
       </c>
       <c r="V2" t="n">
-        <v>2263.799931140764</v>
+        <v>2432.327262041087</v>
       </c>
       <c r="W2" t="n">
-        <v>2263.799931140764</v>
+        <v>2432.327262041087</v>
       </c>
       <c r="X2" t="n">
-        <v>2263.799931140764</v>
+        <v>2432.327262041087</v>
       </c>
       <c r="Y2" t="n">
-        <v>1873.660599164952</v>
+        <v>2432.327262041087</v>
       </c>
     </row>
     <row r="3">
@@ -4385,61 +4385,61 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>966.4318812120973</v>
+        <v>966.4318812120978</v>
       </c>
       <c r="C3" t="n">
-        <v>791.9788519309703</v>
+        <v>791.9788519309708</v>
       </c>
       <c r="D3" t="n">
-        <v>643.0444422697192</v>
+        <v>643.0444422697196</v>
       </c>
       <c r="E3" t="n">
-        <v>483.8069872642636</v>
+        <v>483.8069872642641</v>
       </c>
       <c r="F3" t="n">
-        <v>337.2724292911487</v>
+        <v>337.2724292911492</v>
       </c>
       <c r="G3" t="n">
-        <v>199.8245529640337</v>
+        <v>199.8245529640338</v>
       </c>
       <c r="H3" t="n">
-        <v>98.84600463815735</v>
+        <v>98.84600463815747</v>
       </c>
       <c r="I3" t="n">
         <v>52.7180875944842</v>
       </c>
       <c r="J3" t="n">
-        <v>52.7180875944842</v>
+        <v>170.7774263352079</v>
       </c>
       <c r="K3" t="n">
-        <v>119.3005601895487</v>
+        <v>237.3598989302719</v>
       </c>
       <c r="L3" t="n">
-        <v>622.2833943866603</v>
+        <v>740.3427331273829</v>
       </c>
       <c r="M3" t="n">
-        <v>1261.219859367379</v>
+        <v>918.2311849956011</v>
       </c>
       <c r="N3" t="n">
-        <v>1643.297497944256</v>
+        <v>1435.320983085768</v>
       </c>
       <c r="O3" t="n">
-        <v>2191.222737149931</v>
+        <v>1983.246222291442</v>
       </c>
       <c r="P3" t="n">
-        <v>2613.977979877465</v>
+        <v>2406.001465018976</v>
       </c>
       <c r="Q3" t="n">
         <v>2635.90437972421</v>
       </c>
       <c r="R3" t="n">
-        <v>2614.39023326765</v>
+        <v>2614.390233267651</v>
       </c>
       <c r="S3" t="n">
-        <v>2464.803105373094</v>
+        <v>2464.803105373095</v>
       </c>
       <c r="T3" t="n">
-        <v>2267.787695880795</v>
+        <v>2267.787695880796</v>
       </c>
       <c r="U3" t="n">
         <v>2039.648482162597</v>
@@ -4448,13 +4448,13 @@
         <v>1804.496373930854</v>
       </c>
       <c r="W3" t="n">
-        <v>1550.259017202652</v>
+        <v>1550.259017202653</v>
       </c>
       <c r="X3" t="n">
-        <v>1342.407516997119</v>
+        <v>1342.40751699712</v>
       </c>
       <c r="Y3" t="n">
-        <v>1134.647218232165</v>
+        <v>1134.647218232166</v>
       </c>
     </row>
     <row r="4">
@@ -4464,19 +4464,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>199.6080350923945</v>
+        <v>835.1862275326391</v>
       </c>
       <c r="C4" t="n">
-        <v>199.6080350923945</v>
+        <v>666.2500446047322</v>
       </c>
       <c r="D4" t="n">
-        <v>199.6080350923945</v>
+        <v>516.1334051923965</v>
       </c>
       <c r="E4" t="n">
-        <v>199.6080350923945</v>
+        <v>368.2203116100034</v>
       </c>
       <c r="F4" t="n">
-        <v>52.7180875944842</v>
+        <v>221.330364112093</v>
       </c>
       <c r="G4" t="n">
         <v>52.7180875944842</v>
@@ -4491,49 +4491,49 @@
         <v>52.7180875944842</v>
       </c>
       <c r="K4" t="n">
-        <v>153.1475318919737</v>
+        <v>153.1475318919734</v>
       </c>
       <c r="L4" t="n">
-        <v>337.1890785482335</v>
+        <v>337.1890785482327</v>
       </c>
       <c r="M4" t="n">
-        <v>541.6242080628167</v>
+        <v>541.6242080628155</v>
       </c>
       <c r="N4" t="n">
-        <v>746.632943554378</v>
+        <v>746.6329435543764</v>
       </c>
       <c r="O4" t="n">
-        <v>919.9753968917113</v>
+        <v>919.9753968917094</v>
       </c>
       <c r="P4" t="n">
-        <v>1044.779129327088</v>
+        <v>1044.779129327086</v>
       </c>
       <c r="Q4" t="n">
-        <v>1047.751684421862</v>
+        <v>1047.75168442186</v>
       </c>
       <c r="R4" t="n">
-        <v>917.029502566179</v>
+        <v>1047.75168442186</v>
       </c>
       <c r="S4" t="n">
-        <v>709.4945613603475</v>
+        <v>1047.75168442186</v>
       </c>
       <c r="T4" t="n">
-        <v>483.8421572990184</v>
+        <v>1047.75168442186</v>
       </c>
       <c r="U4" t="n">
-        <v>199.6080350923945</v>
+        <v>1047.75168442186</v>
       </c>
       <c r="V4" t="n">
-        <v>199.6080350923945</v>
+        <v>1047.75168442186</v>
       </c>
       <c r="W4" t="n">
-        <v>199.6080350923945</v>
+        <v>1047.75168442186</v>
       </c>
       <c r="X4" t="n">
-        <v>199.6080350923945</v>
+        <v>1047.75168442186</v>
       </c>
       <c r="Y4" t="n">
-        <v>199.6080350923945</v>
+        <v>1016.834692362879</v>
       </c>
     </row>
     <row r="5">
@@ -4543,49 +4543,49 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>586.2544210555384</v>
+        <v>1636.641500934715</v>
       </c>
       <c r="C5" t="n">
-        <v>586.2544210555384</v>
+        <v>1267.678983994303</v>
       </c>
       <c r="D5" t="n">
-        <v>586.2544210555384</v>
+        <v>1267.678983994303</v>
       </c>
       <c r="E5" t="n">
-        <v>586.2544210555384</v>
+        <v>1000.963671197077</v>
       </c>
       <c r="F5" t="n">
-        <v>579.3089203063349</v>
+        <v>589.9777664074697</v>
       </c>
       <c r="G5" t="n">
-        <v>491.224998716003</v>
+        <v>172.8778760174001</v>
       </c>
       <c r="H5" t="n">
-        <v>172.8778760173998</v>
+        <v>172.8778760174001</v>
       </c>
       <c r="I5" t="n">
         <v>52.7180875944842</v>
       </c>
       <c r="J5" t="n">
-        <v>72.94508437002509</v>
+        <v>72.94508437002453</v>
       </c>
       <c r="K5" t="n">
-        <v>474.9025859199855</v>
+        <v>153.9986274745311</v>
       </c>
       <c r="L5" t="n">
-        <v>1025.843037648567</v>
+        <v>693.1884131896807</v>
       </c>
       <c r="M5" t="n">
-        <v>1210.458592371941</v>
+        <v>1322.822366070958</v>
       </c>
       <c r="N5" t="n">
-        <v>1629.431735936301</v>
+        <v>1948.012457026072</v>
       </c>
       <c r="O5" t="n">
-        <v>2174.593372690798</v>
+        <v>2493.174093780568</v>
       </c>
       <c r="P5" t="n">
-        <v>2602.201833992996</v>
+        <v>2602.201833992997</v>
       </c>
       <c r="Q5" t="n">
         <v>2635.90437972421</v>
@@ -4594,25 +4594,25 @@
         <v>2635.143761215016</v>
       </c>
       <c r="S5" t="n">
-        <v>2635.143761215016</v>
+        <v>2478.652798385543</v>
       </c>
       <c r="T5" t="n">
-        <v>2420.290893970237</v>
+        <v>2263.799931140763</v>
       </c>
       <c r="U5" t="n">
-        <v>2420.290893970237</v>
+        <v>2010.107259195795</v>
       </c>
       <c r="V5" t="n">
-        <v>2089.228006626666</v>
+        <v>2010.107259195795</v>
       </c>
       <c r="W5" t="n">
-        <v>1736.459351356552</v>
+        <v>2010.107259195795</v>
       </c>
       <c r="X5" t="n">
-        <v>1362.993593095472</v>
+        <v>1636.641500934715</v>
       </c>
       <c r="Y5" t="n">
-        <v>972.8542611196601</v>
+        <v>1636.641500934715</v>
       </c>
     </row>
     <row r="6">
@@ -4631,16 +4631,16 @@
         <v>643.0444422697199</v>
       </c>
       <c r="E6" t="n">
-        <v>483.8069872642643</v>
+        <v>483.8069872642644</v>
       </c>
       <c r="F6" t="n">
-        <v>337.2724292911493</v>
+        <v>337.2724292911494</v>
       </c>
       <c r="G6" t="n">
-        <v>199.8245529640337</v>
+        <v>199.8245529640338</v>
       </c>
       <c r="H6" t="n">
-        <v>98.84600463815735</v>
+        <v>98.8460046381575</v>
       </c>
       <c r="I6" t="n">
         <v>52.7180875944842</v>
@@ -4649,19 +4649,19 @@
         <v>52.7180875944842</v>
       </c>
       <c r="K6" t="n">
-        <v>119.3005601895487</v>
+        <v>381.1211448320009</v>
       </c>
       <c r="L6" t="n">
-        <v>622.2833943866603</v>
+        <v>884.103979029112</v>
       </c>
       <c r="M6" t="n">
-        <v>1261.219859367379</v>
+        <v>1523.04044400983</v>
       </c>
       <c r="N6" t="n">
-        <v>1913.606193349121</v>
+        <v>1720.045718791139</v>
       </c>
       <c r="O6" t="n">
-        <v>2461.531432554796</v>
+        <v>2267.970957996813</v>
       </c>
       <c r="P6" t="n">
         <v>2613.977979877466</v>
@@ -4701,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>835.1862275326391</v>
+        <v>866.1032195916201</v>
       </c>
       <c r="C7" t="n">
-        <v>666.2500446047322</v>
+        <v>697.1670366637132</v>
       </c>
       <c r="D7" t="n">
-        <v>516.1334051923965</v>
+        <v>547.0503972513775</v>
       </c>
       <c r="E7" t="n">
-        <v>368.2203116100034</v>
+        <v>399.1373036689844</v>
       </c>
       <c r="F7" t="n">
-        <v>221.330364112093</v>
+        <v>252.247356171074</v>
       </c>
       <c r="G7" t="n">
-        <v>52.7180875944842</v>
+        <v>83.6350796534652</v>
       </c>
       <c r="H7" t="n">
-        <v>52.7180875944842</v>
+        <v>70.97668332239621</v>
       </c>
       <c r="I7" t="n">
-        <v>52.7180875944842</v>
+        <v>70.97668332239621</v>
       </c>
       <c r="J7" t="n">
         <v>52.7180875944842</v>
       </c>
       <c r="K7" t="n">
-        <v>153.1475318919737</v>
+        <v>153.1475318919734</v>
       </c>
       <c r="L7" t="n">
-        <v>337.1890785482335</v>
+        <v>337.1890785482327</v>
       </c>
       <c r="M7" t="n">
-        <v>541.6242080628167</v>
+        <v>541.6242080628155</v>
       </c>
       <c r="N7" t="n">
-        <v>746.632943554378</v>
+        <v>746.6329435543764</v>
       </c>
       <c r="O7" t="n">
-        <v>919.9753968917113</v>
+        <v>919.9753968917094</v>
       </c>
       <c r="P7" t="n">
-        <v>1044.779129327088</v>
+        <v>1044.779129327086</v>
       </c>
       <c r="Q7" t="n">
-        <v>1047.751684421862</v>
+        <v>1047.75168442186</v>
       </c>
       <c r="R7" t="n">
-        <v>1047.751684421862</v>
+        <v>1047.75168442186</v>
       </c>
       <c r="S7" t="n">
-        <v>1047.751684421862</v>
+        <v>1047.75168442186</v>
       </c>
       <c r="T7" t="n">
-        <v>1047.751684421862</v>
+        <v>1047.75168442186</v>
       </c>
       <c r="U7" t="n">
-        <v>1047.751684421862</v>
+        <v>1047.75168442186</v>
       </c>
       <c r="V7" t="n">
-        <v>1016.834692362879</v>
+        <v>1047.75168442186</v>
       </c>
       <c r="W7" t="n">
-        <v>1016.834692362879</v>
+        <v>1047.75168442186</v>
       </c>
       <c r="X7" t="n">
-        <v>1016.834692362879</v>
+        <v>1047.75168442186</v>
       </c>
       <c r="Y7" t="n">
-        <v>1016.834692362879</v>
+        <v>1047.75168442186</v>
       </c>
     </row>
     <row r="8">
@@ -4780,25 +4780,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1318.707859975044</v>
+        <v>529.929959589316</v>
       </c>
       <c r="C8" t="n">
-        <v>1318.707859975044</v>
+        <v>160.9674426489043</v>
       </c>
       <c r="D8" t="n">
-        <v>1318.707859975044</v>
+        <v>160.9674426489043</v>
       </c>
       <c r="E8" t="n">
-        <v>1318.707859975044</v>
+        <v>160.9674426489043</v>
       </c>
       <c r="F8" t="n">
-        <v>907.7219551854364</v>
+        <v>154.0219418997008</v>
       </c>
       <c r="G8" t="n">
-        <v>490.6341734218639</v>
+        <v>140.9745641765323</v>
       </c>
       <c r="H8" t="n">
-        <v>172.4110581943734</v>
+        <v>140.9745641765323</v>
       </c>
       <c r="I8" t="n">
         <v>52.7180875944842</v>
@@ -4831,25 +4831,25 @@
         <v>2635.90437972421</v>
       </c>
       <c r="S8" t="n">
-        <v>2635.90437972421</v>
+        <v>2479.689342221038</v>
       </c>
       <c r="T8" t="n">
-        <v>2421.104517991921</v>
+        <v>2264.889480488749</v>
       </c>
       <c r="U8" t="n">
-        <v>2376.005160849808</v>
+        <v>2011.1977772339</v>
       </c>
       <c r="V8" t="n">
-        <v>2044.942273506238</v>
+        <v>1680.134889890329</v>
       </c>
       <c r="W8" t="n">
-        <v>1692.173618236124</v>
+        <v>1680.134889890329</v>
       </c>
       <c r="X8" t="n">
-        <v>1318.707859975044</v>
+        <v>1306.669131629249</v>
       </c>
       <c r="Y8" t="n">
-        <v>1318.707859975044</v>
+        <v>916.5297996534377</v>
       </c>
     </row>
     <row r="9">
@@ -4938,22 +4938,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>206.9727306947191</v>
+        <v>497.6377680871234</v>
       </c>
       <c r="C10" t="n">
-        <v>206.9727306947191</v>
+        <v>497.6377680871234</v>
       </c>
       <c r="D10" t="n">
-        <v>206.9727306947191</v>
+        <v>347.5211286747876</v>
       </c>
       <c r="E10" t="n">
-        <v>206.9727306947191</v>
+        <v>199.6080350923945</v>
       </c>
       <c r="F10" t="n">
-        <v>206.9727306947191</v>
+        <v>52.7180875944842</v>
       </c>
       <c r="G10" t="n">
-        <v>206.9727306947191</v>
+        <v>52.7180875944842</v>
       </c>
       <c r="H10" t="n">
         <v>52.7180875944842</v>
@@ -4989,25 +4989,25 @@
         <v>1052.652769053829</v>
       </c>
       <c r="S10" t="n">
-        <v>845.2124843062343</v>
+        <v>1052.652769053829</v>
       </c>
       <c r="T10" t="n">
-        <v>678.0383655619194</v>
+        <v>1052.652769053829</v>
       </c>
       <c r="U10" t="n">
-        <v>678.0383655619194</v>
+        <v>1052.652769053829</v>
       </c>
       <c r="V10" t="n">
-        <v>678.0383655619194</v>
+        <v>968.7034029543238</v>
       </c>
       <c r="W10" t="n">
-        <v>388.6211955249588</v>
+        <v>679.2862329173631</v>
       </c>
       <c r="X10" t="n">
-        <v>388.6211955249588</v>
+        <v>679.2862329173631</v>
       </c>
       <c r="Y10" t="n">
-        <v>388.6211955249588</v>
+        <v>679.2862329173631</v>
       </c>
     </row>
     <row r="11">
@@ -5026,7 +5026,7 @@
         <v>1590.547811004712</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F11" t="n">
         <v>793.7736536168611</v>
@@ -5041,10 +5041,10 @@
         <v>95.34095638192595</v>
       </c>
       <c r="J11" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L11" t="n">
         <v>1478.611553332387</v>
@@ -5117,22 +5117,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I12" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J12" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K12" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L12" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M12" t="n">
-        <v>1671.859558793925</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N12" t="n">
-        <v>2299.457522348532</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O12" t="n">
         <v>2553.061288060775</v>
@@ -5175,25 +5175,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>874.8686257536381</v>
+        <v>931.4710609784063</v>
       </c>
       <c r="C13" t="n">
-        <v>705.9324428257312</v>
+        <v>762.5348780504994</v>
       </c>
       <c r="D13" t="n">
-        <v>555.8158034133954</v>
+        <v>612.4182386381636</v>
       </c>
       <c r="E13" t="n">
-        <v>407.9027098310023</v>
+        <v>464.5051450557705</v>
       </c>
       <c r="F13" t="n">
-        <v>261.0127623330919</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="G13" t="n">
-        <v>93.81666304797187</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H13" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I13" t="n">
         <v>93.81666304797187</v>
@@ -5226,25 +5226,25 @@
         <v>2446.96308358026</v>
       </c>
       <c r="S13" t="n">
-        <v>2264.108249235165</v>
+        <v>2386.690454827884</v>
       </c>
       <c r="T13" t="n">
-        <v>2264.108249235165</v>
+        <v>2167.088989850826</v>
       </c>
       <c r="U13" t="n">
-        <v>1975.033022579363</v>
+        <v>1878.013763195024</v>
       </c>
       <c r="V13" t="n">
-        <v>1794.716390662386</v>
+        <v>1623.329274989137</v>
       </c>
       <c r="W13" t="n">
-        <v>1505.299220625425</v>
+        <v>1333.912104952176</v>
       </c>
       <c r="X13" t="n">
-        <v>1277.309669727408</v>
+        <v>1333.912104952176</v>
       </c>
       <c r="Y13" t="n">
-        <v>1056.517090583878</v>
+        <v>1113.119525808646</v>
       </c>
     </row>
     <row r="14">
@@ -5275,22 +5275,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K14" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O14" t="n">
         <v>3640.42229106801</v>
@@ -5305,19 +5305,19 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X14" t="n">
         <v>3094.515198591809</v>
@@ -5354,22 +5354,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J15" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K15" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L15" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M15" t="n">
-        <v>1671.859558793925</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N15" t="n">
-        <v>2001.151557821488</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O15" t="n">
         <v>2553.061288060775</v>
@@ -5412,25 +5412,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>869.9745311434712</v>
+        <v>874.8686257536381</v>
       </c>
       <c r="C16" t="n">
-        <v>701.0383482155643</v>
+        <v>705.9324428257312</v>
       </c>
       <c r="D16" t="n">
-        <v>637.9025067654818</v>
+        <v>555.8158034133954</v>
       </c>
       <c r="E16" t="n">
-        <v>489.9894131830887</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F16" t="n">
-        <v>343.0994656851783</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G16" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I16" t="n">
         <v>93.81666304797187</v>
@@ -5460,28 +5460,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T16" t="n">
-        <v>2044.506784258106</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="U16" t="n">
-        <v>2044.506784258106</v>
+        <v>1907.987318831765</v>
       </c>
       <c r="V16" t="n">
-        <v>1789.822296052219</v>
+        <v>1794.716390662386</v>
       </c>
       <c r="W16" t="n">
-        <v>1500.405126015258</v>
+        <v>1505.299220625425</v>
       </c>
       <c r="X16" t="n">
-        <v>1272.415575117241</v>
+        <v>1277.309669727408</v>
       </c>
       <c r="Y16" t="n">
-        <v>1051.622995973711</v>
+        <v>1056.517090583878</v>
       </c>
     </row>
     <row r="17">
@@ -5503,7 +5503,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G17" t="n">
         <v>379.8308874362686</v>
@@ -5512,13 +5512,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332387</v>
@@ -5551,13 +5551,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5734,13 +5734,13 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G20" t="n">
         <v>379.8308874362686</v>
@@ -5749,22 +5749,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O20" t="n">
         <v>3640.42229106801</v>
@@ -5834,16 +5834,16 @@
         <v>245.2306927803937</v>
       </c>
       <c r="K21" t="n">
-        <v>280.8495004245706</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L21" t="n">
-        <v>776.1751066403293</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M21" t="n">
-        <v>1373.553594266881</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N21" t="n">
-        <v>2001.151557821488</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O21" t="n">
         <v>2553.061288060775</v>
@@ -5886,22 +5886,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>653.7474797708871</v>
+        <v>763.7541388327643</v>
       </c>
       <c r="C22" t="n">
-        <v>484.8112968429803</v>
+        <v>594.8179559048574</v>
       </c>
       <c r="D22" t="n">
-        <v>484.8112968429803</v>
+        <v>444.7013164925216</v>
       </c>
       <c r="E22" t="n">
-        <v>484.8112968429803</v>
+        <v>296.7882229101285</v>
       </c>
       <c r="F22" t="n">
-        <v>484.8112968429803</v>
+        <v>296.7882229101285</v>
       </c>
       <c r="G22" t="n">
-        <v>317.6151975578602</v>
+        <v>296.7882229101285</v>
       </c>
       <c r="H22" t="n">
         <v>175.9033664000583</v>
@@ -5934,28 +5934,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S22" t="n">
-        <v>2197.062545487567</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T22" t="n">
-        <v>1977.461080510508</v>
+        <v>2227.361618603201</v>
       </c>
       <c r="U22" t="n">
-        <v>1828.279732885522</v>
+        <v>1938.286391947399</v>
       </c>
       <c r="V22" t="n">
-        <v>1573.595244679635</v>
+        <v>1683.601903741512</v>
       </c>
       <c r="W22" t="n">
-        <v>1284.178074642674</v>
+        <v>1394.184733704551</v>
       </c>
       <c r="X22" t="n">
-        <v>1056.188523744657</v>
+        <v>1166.195182806534</v>
       </c>
       <c r="Y22" t="n">
-        <v>835.3959446011269</v>
+        <v>945.402603663004</v>
       </c>
     </row>
     <row r="23">
@@ -5986,22 +5986,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111717</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O23" t="n">
         <v>3640.42229106801</v>
@@ -6025,13 +6025,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6123,25 +6123,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>513.8536007400712</v>
+        <v>653.7474797708871</v>
       </c>
       <c r="C25" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="D25" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E25" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F25" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G25" t="n">
-        <v>177.7213185270443</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I25" t="n">
         <v>93.81666304797187</v>
@@ -6171,28 +6171,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S25" t="n">
-        <v>2197.062545487567</v>
+        <v>2336.956424518383</v>
       </c>
       <c r="T25" t="n">
-        <v>1977.461080510508</v>
+        <v>2117.354959541324</v>
       </c>
       <c r="U25" t="n">
-        <v>1688.385853854706</v>
+        <v>1828.279732885522</v>
       </c>
       <c r="V25" t="n">
-        <v>1433.701365648819</v>
+        <v>1573.595244679635</v>
       </c>
       <c r="W25" t="n">
-        <v>1144.284195611858</v>
+        <v>1284.178074642674</v>
       </c>
       <c r="X25" t="n">
-        <v>916.2946447138411</v>
+        <v>1056.188523744657</v>
       </c>
       <c r="Y25" t="n">
-        <v>695.5020655703109</v>
+        <v>835.3959446011269</v>
       </c>
     </row>
     <row r="26">
@@ -6226,7 +6226,7 @@
         <v>95.34095638192593</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K26" t="n">
         <v>852.8523611075807</v>
@@ -6235,10 +6235,10 @@
         <v>1478.611553332388</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O26" t="n">
         <v>3640.42229106801</v>
@@ -6262,13 +6262,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y26" t="n">
         <v>2704.375866615997</v>
@@ -6360,22 +6360,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400749</v>
       </c>
       <c r="C28" t="n">
-        <v>402.7245934908939</v>
+        <v>344.917417812168</v>
       </c>
       <c r="D28" t="n">
-        <v>402.7245934908939</v>
+        <v>344.917417812168</v>
       </c>
       <c r="E28" t="n">
-        <v>402.7245934908939</v>
+        <v>344.917417812168</v>
       </c>
       <c r="F28" t="n">
-        <v>402.7245934908939</v>
+        <v>344.917417812168</v>
       </c>
       <c r="G28" t="n">
-        <v>235.5284942057738</v>
+        <v>177.7213185270479</v>
       </c>
       <c r="H28" t="n">
         <v>93.81666304797187</v>
@@ -6405,31 +6405,31 @@
         <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580264</v>
       </c>
       <c r="R28" t="n">
-        <v>2437.724555511392</v>
+        <v>2379.917379832666</v>
       </c>
       <c r="S28" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487571</v>
       </c>
       <c r="T28" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510512</v>
       </c>
       <c r="U28" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.38585385471</v>
       </c>
       <c r="V28" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648823</v>
       </c>
       <c r="W28" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611862</v>
       </c>
       <c r="X28" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138447</v>
       </c>
       <c r="Y28" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703146</v>
       </c>
     </row>
     <row r="29">
@@ -6454,31 +6454,31 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P29" t="n">
         <v>4194.413870694707</v>
@@ -6539,13 +6539,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J30" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K30" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L30" t="n">
         <v>1074.481071167373</v>
@@ -6597,16 +6597,16 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>580.0655846733346</v>
+        <v>874.8686257536381</v>
       </c>
       <c r="C31" t="n">
-        <v>411.1294017454277</v>
+        <v>705.9324428257312</v>
       </c>
       <c r="D31" t="n">
-        <v>261.0127623330919</v>
+        <v>555.8158034133954</v>
       </c>
       <c r="E31" t="n">
-        <v>261.0127623330919</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F31" t="n">
         <v>261.0127623330919</v>
@@ -6621,52 +6621,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M31" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P31" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853365</v>
       </c>
       <c r="Q31" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580265</v>
       </c>
       <c r="R31" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580265</v>
       </c>
       <c r="S31" t="n">
-        <v>2197.062545487567</v>
+        <v>2446.963083580265</v>
       </c>
       <c r="T31" t="n">
-        <v>1977.461080510508</v>
+        <v>2338.476105524075</v>
       </c>
       <c r="U31" t="n">
-        <v>1688.385853854706</v>
+        <v>2049.400878868273</v>
       </c>
       <c r="V31" t="n">
-        <v>1433.701365648819</v>
+        <v>1794.716390662386</v>
       </c>
       <c r="W31" t="n">
-        <v>1144.284195611858</v>
+        <v>1505.299220625425</v>
       </c>
       <c r="X31" t="n">
-        <v>916.2946447138411</v>
+        <v>1277.309669727408</v>
       </c>
       <c r="Y31" t="n">
-        <v>695.5020655703109</v>
+        <v>1056.517090583878</v>
       </c>
     </row>
     <row r="32">
@@ -6688,40 +6688,40 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192589</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014777</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355935</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068008</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694705</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R32" t="n">
         <v>4690.833152398593</v>
@@ -6764,7 +6764,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E33" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F33" t="n">
         <v>314.2396613568978</v>
@@ -6776,22 +6776,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273899</v>
       </c>
       <c r="J33" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803936</v>
       </c>
       <c r="K33" t="n">
-        <v>577.3880777468471</v>
+        <v>579.155464951614</v>
       </c>
       <c r="L33" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167372</v>
       </c>
       <c r="M33" t="n">
-        <v>1373.553594266881</v>
+        <v>1671.859558793924</v>
       </c>
       <c r="N33" t="n">
-        <v>2001.151557821488</v>
+        <v>2299.45752234853</v>
       </c>
       <c r="O33" t="n">
         <v>2553.061288060775</v>
@@ -6834,22 +6834,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400708</v>
       </c>
       <c r="C34" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121639</v>
       </c>
       <c r="D34" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121639</v>
       </c>
       <c r="E34" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121639</v>
       </c>
       <c r="F34" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121639</v>
       </c>
       <c r="G34" t="n">
-        <v>235.5284942057738</v>
+        <v>177.7213185270438</v>
       </c>
       <c r="H34" t="n">
         <v>93.81666304797187</v>
@@ -6861,10 +6861,10 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038341</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797741</v>
       </c>
       <c r="M34" t="n">
         <v>1248.150240910809</v>
@@ -6876,34 +6876,34 @@
         <v>2035.089393279802</v>
       </c>
       <c r="P34" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.76484885336</v>
       </c>
       <c r="Q34" t="n">
         <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>2437.724555511392</v>
+        <v>2379.917379832662</v>
       </c>
       <c r="S34" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T34" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U34" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V34" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W34" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X34" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138406</v>
       </c>
       <c r="Y34" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703105</v>
       </c>
     </row>
     <row r="35">
@@ -6916,7 +6916,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C35" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D35" t="n">
         <v>1590.547811004713</v>
@@ -6925,31 +6925,31 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H35" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192684</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111726</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075825</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332389</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O35" t="n">
         <v>3640.42229106801</v>
@@ -6964,22 +6964,22 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T35" t="n">
         <v>4405.252601474784</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y35" t="n">
         <v>2704.375866615997</v>
@@ -7010,25 +7010,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I36" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273898</v>
       </c>
       <c r="J36" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803936</v>
       </c>
       <c r="K36" t="n">
-        <v>579.1554649516142</v>
+        <v>579.155464951614</v>
       </c>
       <c r="L36" t="n">
-        <v>1074.481071167373</v>
+        <v>1074.481071167372</v>
       </c>
       <c r="M36" t="n">
-        <v>1671.859558793925</v>
+        <v>1671.859558793924</v>
       </c>
       <c r="N36" t="n">
-        <v>2299.457522348532</v>
+        <v>2299.45752234853</v>
       </c>
       <c r="O36" t="n">
         <v>2553.061288060775</v>
@@ -7071,49 +7071,49 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>763.7541388327643</v>
+        <v>1098.667160263527</v>
       </c>
       <c r="C37" t="n">
-        <v>594.8179559048574</v>
+        <v>929.7309773356195</v>
       </c>
       <c r="D37" t="n">
-        <v>444.7013164925216</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E37" t="n">
-        <v>296.7882229101285</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F37" t="n">
-        <v>296.7882229101285</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G37" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578603</v>
       </c>
       <c r="H37" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J37" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782956</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038341</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797745</v>
+        <v>826.140538179774</v>
       </c>
       <c r="M37" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.150240910808</v>
       </c>
       <c r="N37" t="n">
         <v>1665.560112570817</v>
       </c>
       <c r="O37" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279801</v>
       </c>
       <c r="P37" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.76484885336</v>
       </c>
       <c r="Q37" t="n">
         <v>2446.96308358026</v>
@@ -7125,22 +7125,22 @@
         <v>2446.96308358026</v>
       </c>
       <c r="T37" t="n">
-        <v>2227.361618603201</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="U37" t="n">
-        <v>1938.286391947399</v>
+        <v>2273.199413378161</v>
       </c>
       <c r="V37" t="n">
-        <v>1683.601903741512</v>
+        <v>2018.514925172274</v>
       </c>
       <c r="W37" t="n">
-        <v>1394.184733704551</v>
+        <v>1729.097755135313</v>
       </c>
       <c r="X37" t="n">
-        <v>1166.195182806534</v>
+        <v>1501.108204237296</v>
       </c>
       <c r="Y37" t="n">
-        <v>945.402603663004</v>
+        <v>1280.315625093766</v>
       </c>
     </row>
     <row r="38">
@@ -7150,43 +7150,43 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C38" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D38" t="n">
         <v>1590.547811004712</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406467</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168597</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362681</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192588</v>
       </c>
       <c r="J38" t="n">
         <v>378.1925803111712</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O38" t="n">
         <v>3640.42229106801</v>
@@ -7201,25 +7201,25 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T38" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y38" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="39">
@@ -7247,25 +7247,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I39" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273898</v>
       </c>
       <c r="J39" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803936</v>
       </c>
       <c r="K39" t="n">
-        <v>579.1554649516142</v>
+        <v>579.155464951614</v>
       </c>
       <c r="L39" t="n">
-        <v>1074.481071167373</v>
+        <v>1074.481071167372</v>
       </c>
       <c r="M39" t="n">
-        <v>1671.859558793925</v>
+        <v>1671.859558793924</v>
       </c>
       <c r="N39" t="n">
-        <v>2299.457522348532</v>
+        <v>2299.45752234853</v>
       </c>
       <c r="O39" t="n">
         <v>2553.061288060775</v>
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>550.637687073287</v>
+        <v>513.8536007400703</v>
       </c>
       <c r="C40" t="n">
-        <v>550.637687073287</v>
+        <v>344.9174178121634</v>
       </c>
       <c r="D40" t="n">
-        <v>550.637687073287</v>
+        <v>194.8007783998277</v>
       </c>
       <c r="E40" t="n">
-        <v>402.7245934908939</v>
+        <v>194.8007783998277</v>
       </c>
       <c r="F40" t="n">
-        <v>402.7245934908939</v>
+        <v>194.8007783998277</v>
       </c>
       <c r="G40" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="H40" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J40" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782956</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038341</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797745</v>
+        <v>826.140538179774</v>
       </c>
       <c r="M40" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.150240910808</v>
       </c>
       <c r="N40" t="n">
         <v>1665.560112570817</v>
       </c>
       <c r="O40" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279801</v>
       </c>
       <c r="P40" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.76484885336</v>
       </c>
       <c r="Q40" t="n">
         <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832662</v>
       </c>
       <c r="S40" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487566</v>
       </c>
       <c r="T40" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510507</v>
       </c>
       <c r="U40" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854705</v>
       </c>
       <c r="V40" t="n">
-        <v>1470.485451982035</v>
+        <v>1433.701365648818</v>
       </c>
       <c r="W40" t="n">
-        <v>1181.068281945074</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X40" t="n">
-        <v>953.0787310470569</v>
+        <v>916.2946447138402</v>
       </c>
       <c r="Y40" t="n">
-        <v>732.2861519035267</v>
+        <v>695.50206557031</v>
       </c>
     </row>
     <row r="41">
@@ -7405,43 +7405,43 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192588</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014777</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355935</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068008</v>
       </c>
       <c r="P41" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694705</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852253</v>
       </c>
       <c r="R41" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S41" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T41" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U41" t="n">
         <v>4151.812499466573</v>
@@ -7484,25 +7484,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H42" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I42" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273898</v>
       </c>
       <c r="J42" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803936</v>
       </c>
       <c r="K42" t="n">
-        <v>579.1554649516142</v>
+        <v>579.155464951614</v>
       </c>
       <c r="L42" t="n">
-        <v>1074.481071167373</v>
+        <v>1074.481071167372</v>
       </c>
       <c r="M42" t="n">
-        <v>1671.859558793925</v>
+        <v>1671.859558793924</v>
       </c>
       <c r="N42" t="n">
-        <v>2299.457522348532</v>
+        <v>2299.45752234853</v>
       </c>
       <c r="O42" t="n">
         <v>2553.061288060775</v>
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>1098.667160263527</v>
+        <v>513.8536007400703</v>
       </c>
       <c r="C43" t="n">
-        <v>929.7309773356195</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="D43" t="n">
-        <v>779.6143379232838</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E43" t="n">
-        <v>631.7012443408906</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F43" t="n">
         <v>484.8112968429803</v>
       </c>
       <c r="G43" t="n">
-        <v>317.6151975578602</v>
+        <v>317.6151975578603</v>
       </c>
       <c r="H43" t="n">
         <v>175.9033664000583</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J43" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782956</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038341</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797745</v>
+        <v>826.140538179774</v>
       </c>
       <c r="M43" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.150240910808</v>
       </c>
       <c r="N43" t="n">
         <v>1665.560112570817</v>
       </c>
       <c r="O43" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279801</v>
       </c>
       <c r="P43" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.76484885336</v>
       </c>
       <c r="Q43" t="n">
         <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832662</v>
       </c>
       <c r="S43" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487566</v>
       </c>
       <c r="T43" t="n">
-        <v>2264.108249235165</v>
+        <v>1977.461080510507</v>
       </c>
       <c r="U43" t="n">
-        <v>2264.108249235165</v>
+        <v>1688.385853854705</v>
       </c>
       <c r="V43" t="n">
-        <v>2009.423761029278</v>
+        <v>1433.701365648818</v>
       </c>
       <c r="W43" t="n">
-        <v>1720.006590992317</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X43" t="n">
-        <v>1492.0170400943</v>
+        <v>916.2946447138402</v>
       </c>
       <c r="Y43" t="n">
-        <v>1271.22446095077</v>
+        <v>695.50206557031</v>
       </c>
     </row>
     <row r="44">
@@ -7633,34 +7633,34 @@
         <v>1590.547811004712</v>
       </c>
       <c r="E44" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406467</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168597</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192588</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111734</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075824</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O44" t="n">
         <v>3640.42229106801</v>
@@ -7675,10 +7675,10 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S44" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T44" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U44" t="n">
         <v>4151.812499466572</v>
@@ -7721,28 +7721,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H45" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I45" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J45" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756265</v>
       </c>
       <c r="K45" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468469</v>
       </c>
       <c r="L45" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962605</v>
       </c>
       <c r="M45" t="n">
-        <v>1671.859558793925</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="N45" t="n">
-        <v>2299.457522348532</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O45" t="n">
-        <v>2553.061288060775</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P45" t="n">
         <v>2553.061288060775</v>
@@ -7782,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>513.8536007400712</v>
+        <v>653.7474797708873</v>
       </c>
       <c r="C46" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="D46" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E46" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F46" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G46" t="n">
-        <v>177.7213185270443</v>
+        <v>317.6151975578603</v>
       </c>
       <c r="H46" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I46" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J46" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782956</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038341</v>
       </c>
       <c r="L46" t="n">
-        <v>826.1405381797745</v>
+        <v>826.140538179774</v>
       </c>
       <c r="M46" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.150240910808</v>
       </c>
       <c r="N46" t="n">
         <v>1665.560112570817</v>
       </c>
       <c r="O46" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279801</v>
       </c>
       <c r="P46" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.76484885336</v>
       </c>
       <c r="Q46" t="n">
         <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832662</v>
       </c>
       <c r="S46" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487566</v>
       </c>
       <c r="T46" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510507</v>
       </c>
       <c r="U46" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854705</v>
       </c>
       <c r="V46" t="n">
-        <v>1433.701365648819</v>
+        <v>1573.595244679635</v>
       </c>
       <c r="W46" t="n">
-        <v>1144.284195611858</v>
+        <v>1284.178074642674</v>
       </c>
       <c r="X46" t="n">
-        <v>916.2946447138411</v>
+        <v>1056.188523744657</v>
       </c>
       <c r="Y46" t="n">
-        <v>695.5020655703109</v>
+        <v>835.395944601127</v>
       </c>
     </row>
   </sheetData>
@@ -7981,7 +7981,7 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L2" t="n">
         <v>417.6612145504504</v>
@@ -7990,13 +7990,13 @@
         <v>449.5135334928325</v>
       </c>
       <c r="N2" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>368.9308216532116</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>101.3321522312935</v>
       </c>
       <c r="Q2" t="n">
         <v>0</v>
@@ -8057,7 +8057,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>6.839178026546165</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -8066,10 +8066,10 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M3" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>186.9417816116838</v>
+        <v>323.3177003119777</v>
       </c>
       <c r="O3" t="n">
         <v>393.8623192767295</v>
@@ -8078,7 +8078,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8218,22 +8218,22 @@
         <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L5" t="n">
-        <v>417.6612145504504</v>
+        <v>405.7918549409245</v>
       </c>
       <c r="M5" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N5" t="n">
-        <v>229.0469775526354</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O5" t="n">
         <v>380.8001812627454</v>
       </c>
       <c r="P5" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q5" t="n">
         <v>0</v>
@@ -8294,10 +8294,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>6.839178026546165</v>
+        <v>6.839178026546477</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
         <v>370.8403453034592</v>
@@ -8306,13 +8306,13 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N6" t="n">
-        <v>459.9808678792245</v>
+        <v>0</v>
       </c>
       <c r="O6" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P6" t="n">
-        <v>45.4236823723968</v>
+        <v>240.9393132390475</v>
       </c>
       <c r="Q6" t="n">
         <v>0</v>
@@ -10369,7 +10369,7 @@
         <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>3.069544618483633e-12</v>
       </c>
       <c r="R32" t="n">
         <v>0</v>
@@ -10831,7 +10831,7 @@
         <v>0</v>
       </c>
       <c r="M38" t="n">
-        <v>0</v>
+        <v>2.160049916710705e-12</v>
       </c>
       <c r="N38" t="n">
         <v>0</v>
@@ -11083,7 +11083,7 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>1.449507180950604e-12</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11296,7 +11296,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>2.160049916710705e-12</v>
       </c>
       <c r="K44" t="n">
         <v>0</v>
@@ -23430,13 +23430,13 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,25 +23463,25 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671011788</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>121.3563835367923</v>
       </c>
       <c r="T13" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>73.62417772602097</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23658,7 +23658,7 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>86.11098998263071</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -23673,7 +23673,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23700,19 +23700,19 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>139.9994244361426</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -24132,19 +24132,19 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>20.61870490125435</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -24174,16 +24174,16 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>138.4949402405077</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -24381,10 +24381,10 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>57.22910392194221</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24411,10 +24411,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>72.11969353038577</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24618,7 +24618,7 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>57.22910392193862</v>
       </c>
       <c r="I28" t="n">
         <v>81.26583631856553</v>
@@ -24648,7 +24648,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>57.2291039219422</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -24837,7 +24837,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>65.54986409393069</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
@@ -24846,10 +24846,10 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
@@ -24858,7 +24858,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24885,13 +24885,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>110.0033420516603</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -25092,10 +25092,10 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>57.22910392194267</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856556</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25122,7 +25122,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>57.2291039219422</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -25323,16 +25323,16 @@
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>104.8770068749577</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25359,16 +25359,16 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012171</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>114.1584408891665</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -25551,25 +25551,25 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>65.54986409393157</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856556</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25608,7 +25608,7 @@
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>36.41624546988353</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
@@ -25785,19 +25785,19 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>9.000252501566507</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>138.4949402405088</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
@@ -25833,16 +25833,16 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -26040,10 +26040,10 @@
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>57.22910392194221</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26082,7 +26082,7 @@
         <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>138.4949402405086</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
@@ -26125,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>874835.5520526437</v>
+        <v>874835.5520526438</v>
       </c>
     </row>
     <row r="3">
@@ -26133,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>874835.5520526437</v>
+        <v>874835.5520526438</v>
       </c>
     </row>
     <row r="4">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>812636.0953751171</v>
+        <v>812636.0953751173</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>812636.0953751171</v>
+        <v>812636.0953751173</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>812636.0953751171</v>
+        <v>812636.0953751173</v>
       </c>
     </row>
     <row r="12">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>812636.0953751173</v>
+        <v>812636.0953751171</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>812636.0953751173</v>
+        <v>812636.0953751171</v>
       </c>
     </row>
     <row r="16">
@@ -26313,46 +26313,46 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>615781.3273982124</v>
+        <v>615781.327398213</v>
       </c>
       <c r="C2" t="n">
+        <v>615781.3273982129</v>
+      </c>
+      <c r="D2" t="n">
         <v>615781.3273982126</v>
       </c>
-      <c r="D2" t="n">
-        <v>615781.3273982125</v>
-      </c>
       <c r="E2" t="n">
+        <v>605359.9497675045</v>
+      </c>
+      <c r="F2" t="n">
         <v>605359.9497675044</v>
       </c>
-      <c r="F2" t="n">
-        <v>605359.9497675042</v>
-      </c>
       <c r="G2" t="n">
-        <v>605359.9497675041</v>
+        <v>605359.9497675045</v>
       </c>
       <c r="H2" t="n">
+        <v>605359.9497675045</v>
+      </c>
+      <c r="I2" t="n">
+        <v>605359.9497675045</v>
+      </c>
+      <c r="J2" t="n">
         <v>605359.9497675046</v>
-      </c>
-      <c r="I2" t="n">
-        <v>605359.9497675041</v>
-      </c>
-      <c r="J2" t="n">
-        <v>605359.9497675041</v>
       </c>
       <c r="K2" t="n">
         <v>605359.9497675042</v>
       </c>
       <c r="L2" t="n">
+        <v>605359.9497675044</v>
+      </c>
+      <c r="M2" t="n">
         <v>605359.9497675042</v>
       </c>
-      <c r="M2" t="n">
-        <v>605359.949767504</v>
-      </c>
       <c r="N2" t="n">
-        <v>605359.9497675045</v>
+        <v>605359.9497675046</v>
       </c>
       <c r="O2" t="n">
-        <v>605359.9497675044</v>
+        <v>605359.9497675046</v>
       </c>
       <c r="P2" t="n">
         <v>605359.9497675045</v>
@@ -26365,13 +26365,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>789845.933122243</v>
+        <v>789845.9331222414</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>2553.741448472796</v>
+        <v>2553.741448474159</v>
       </c>
       <c r="E3" t="n">
         <v>775624.2722329923</v>
@@ -26392,13 +26392,13 @@
         <v>172417.1413821403</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>1.655303094594274e-10</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>128024.1174663868</v>
+        <v>128024.1174663866</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26417,19 +26417,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>184436.3405408955</v>
+        <v>184436.3405408958</v>
       </c>
       <c r="C4" t="n">
-        <v>184436.3405408956</v>
+        <v>184436.3405408958</v>
       </c>
       <c r="D4" t="n">
         <v>183932.5854660025</v>
       </c>
       <c r="E4" t="n">
-        <v>6287.480531695104</v>
+        <v>6287.480531695052</v>
       </c>
       <c r="F4" t="n">
-        <v>6287.480531695088</v>
+        <v>6287.480531695052</v>
       </c>
       <c r="G4" t="n">
         <v>6287.480531695052</v>
@@ -26441,25 +26441,25 @@
         <v>6287.480531695052</v>
       </c>
       <c r="J4" t="n">
-        <v>6287.480531695052</v>
+        <v>6287.480531695103</v>
       </c>
       <c r="K4" t="n">
-        <v>6287.480531695052</v>
+        <v>6287.480531695104</v>
       </c>
       <c r="L4" t="n">
-        <v>6287.480531695052</v>
+        <v>6287.480531695107</v>
       </c>
       <c r="M4" t="n">
-        <v>6287.480531695052</v>
+        <v>6287.480531695092</v>
       </c>
       <c r="N4" t="n">
-        <v>6287.480531695052</v>
+        <v>6287.480531695158</v>
       </c>
       <c r="O4" t="n">
-        <v>6287.480531695052</v>
+        <v>6287.480531695078</v>
       </c>
       <c r="P4" t="n">
-        <v>6287.480531695052</v>
+        <v>6287.480531695157</v>
       </c>
     </row>
     <row r="5">
@@ -26469,10 +26469,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>86566.12012538445</v>
+        <v>86566.12012538442</v>
       </c>
       <c r="C5" t="n">
-        <v>86566.12012538445</v>
+        <v>86566.12012538442</v>
       </c>
       <c r="D5" t="n">
         <v>86631.1255591778</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-445067.0663903106</v>
+        <v>-445067.0663903087</v>
       </c>
       <c r="C6" t="n">
         <v>344778.8667319326</v>
       </c>
       <c r="D6" t="n">
-        <v>342663.8749245594</v>
+        <v>342663.8749245582</v>
       </c>
       <c r="E6" t="n">
-        <v>-278021.7120754471</v>
+        <v>-277709.0707465258</v>
       </c>
       <c r="F6" t="n">
-        <v>497602.5601575451</v>
+        <v>497915.2014864665</v>
       </c>
       <c r="G6" t="n">
-        <v>497602.560157545</v>
+        <v>497915.2014864666</v>
       </c>
       <c r="H6" t="n">
-        <v>497602.5601575454</v>
+        <v>497915.2014864666</v>
       </c>
       <c r="I6" t="n">
-        <v>497602.560157545</v>
+        <v>497915.2014864666</v>
       </c>
       <c r="J6" t="n">
-        <v>325185.4187754047</v>
+        <v>325498.0601043263</v>
       </c>
       <c r="K6" t="n">
-        <v>497602.5601575451</v>
+        <v>497915.2014864662</v>
       </c>
       <c r="L6" t="n">
-        <v>497602.5601575451</v>
+        <v>497915.201486467</v>
       </c>
       <c r="M6" t="n">
-        <v>369578.4426911581</v>
+        <v>369891.0840200798</v>
       </c>
       <c r="N6" t="n">
-        <v>497602.5601575453</v>
+        <v>497915.2014864666</v>
       </c>
       <c r="O6" t="n">
-        <v>497602.5601575452</v>
+        <v>497915.2014864667</v>
       </c>
       <c r="P6" t="n">
-        <v>497602.5601575453</v>
+        <v>497915.2014864665</v>
       </c>
     </row>
   </sheetData>
@@ -26694,31 +26694,31 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>3.250528837155401e-14</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>3.250528837155401e-14</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>3.250528837155401e-14</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>3.250528837155401e-14</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>3.250528837155401e-14</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>3.218023548783847e-14</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>3.218023548783847e-14</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>3.218023548783847e-14</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>3.218023548783847e-14</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -26737,10 +26737,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>590.4941997053421</v>
+        <v>590.4941997053405</v>
       </c>
       <c r="C3" t="n">
-        <v>590.4941997053421</v>
+        <v>590.4941997053405</v>
       </c>
       <c r="D3" t="n">
         <v>593.4761003380651</v>
@@ -26767,19 +26767,19 @@
         <v>1367.975500341674</v>
       </c>
       <c r="L3" t="n">
-        <v>1367.975500341674</v>
+        <v>1367.975500341673</v>
       </c>
       <c r="M3" t="n">
-        <v>1367.975500341674</v>
+        <v>1367.975500341673</v>
       </c>
       <c r="N3" t="n">
-        <v>1367.975500341674</v>
+        <v>1367.975500341673</v>
       </c>
       <c r="O3" t="n">
-        <v>1367.975500341674</v>
+        <v>1367.975500341673</v>
       </c>
       <c r="P3" t="n">
-        <v>1367.975500341674</v>
+        <v>1367.975500341673</v>
       </c>
     </row>
     <row r="4">
@@ -26789,10 +26789,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>658.9760949310524</v>
+        <v>658.9760949310526</v>
       </c>
       <c r="C4" t="n">
-        <v>658.9760949310524</v>
+        <v>658.9760949310526</v>
       </c>
       <c r="D4" t="n">
         <v>658.9760949310524</v>
@@ -26916,7 +26916,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>3.250528837155401e-14</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -26931,7 +26931,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>3.218023548783847e-14</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -26959,13 +26959,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>590.4941997053421</v>
+        <v>590.4941997053405</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>2.981900632722954</v>
+        <v>2.981900632724546</v>
       </c>
       <c r="E3" t="n">
         <v>774.4994000036087</v>
@@ -26986,7 +26986,7 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -27011,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>658.9760949310524</v>
+        <v>658.9760949310526</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>658.9760949310524</v>
+        <v>658.9760949310526</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>513.7321931685959</v>
+        <v>513.7321931685954</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27153,7 +27153,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>3.250528837155401e-14</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -27168,7 +27168,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>3.218023548783847e-14</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27257,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>658.9760949310524</v>
+        <v>658.9760949310526</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27390,10 +27390,10 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>153.079996247373</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -27432,7 +27432,7 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>166.8420575913204</v>
       </c>
       <c r="U2" t="n">
         <v>251.1557452255192</v>
@@ -27447,7 +27447,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27536,31 +27536,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>166.9261537524327</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>152.75990484659</v>
       </c>
       <c r="I4" t="n">
-        <v>123.428264884221</v>
+        <v>123.4282648842211</v>
       </c>
       <c r="J4" t="n">
-        <v>18.07600977063269</v>
+        <v>18.07600977063289</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27584,16 +27584,16 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>129.4149600371267</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>205.4595917937733</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>223.3958800207158</v>
       </c>
       <c r="U4" t="n">
-        <v>4.869166975240944</v>
+        <v>286.2609479597986</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
@@ -27605,7 +27605,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>187.9768312137036</v>
       </c>
     </row>
     <row r="5">
@@ -27615,25 +27615,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>117.8822104030082</v>
       </c>
       <c r="F5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>325.7258091117403</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>315.1636514716171</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27666,25 +27666,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>154.9260532011781</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>251.1557452255192</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27791,13 +27791,13 @@
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>152.75990484659</v>
+        <v>140.2280924788317</v>
       </c>
       <c r="I7" t="n">
-        <v>123.428264884221</v>
+        <v>123.4282648842211</v>
       </c>
       <c r="J7" t="n">
-        <v>18.07600977063269</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27821,19 +27821,19 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>129.4149600371265</v>
+        <v>129.4149600371267</v>
       </c>
       <c r="S7" t="n">
-        <v>205.4595917937732</v>
+        <v>205.4595917937733</v>
       </c>
       <c r="T7" t="n">
-        <v>223.3958800207157</v>
+        <v>223.3958800207158</v>
       </c>
       <c r="U7" t="n">
         <v>286.2609479597986</v>
       </c>
       <c r="V7" t="n">
-        <v>221.5298211854343</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
@@ -27852,10 +27852,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
@@ -27864,16 +27864,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>315.0408840752156</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>31.12212907766263</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27903,25 +27903,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>154.6528871281402</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>206.5064226516091</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28016,19 +28016,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>166.9207765545704</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>152.7120966692326</v>
       </c>
       <c r="I10" t="n">
         <v>123.266557879417</v>
@@ -28061,16 +28061,16 @@
         <v>129.1731816677913</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>205.3658819001186</v>
       </c>
       <c r="T10" t="n">
-        <v>57.87052716388695</v>
+        <v>223.3729047207587</v>
       </c>
       <c r="U10" t="n">
         <v>286.260654658097</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>169.0277708853179</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -28295,7 +28295,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>3.796617681797508e-12</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -28377,7 +28377,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>8.119788366582661e-13</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
@@ -29477,7 +29477,7 @@
         <v>0</v>
       </c>
       <c r="Q28" t="n">
-        <v>0</v>
+        <v>3.758651504979533e-12</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -29711,7 +29711,7 @@
         <v>0</v>
       </c>
       <c r="P31" t="n">
-        <v>0</v>
+        <v>3.758651504979533e-12</v>
       </c>
       <c r="Q31" t="n">
         <v>0</v>
@@ -30039,7 +30039,7 @@
         <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>9.003997547551989e-13</v>
       </c>
       <c r="U35" t="n">
         <v>0</v>
@@ -30237,7 +30237,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>1.477928890381008e-12</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -30711,7 +30711,7 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>1.477928890381008e-12</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -31041,49 +31041,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>2.373846028966198</v>
+        <v>2.373846028966191</v>
       </c>
       <c r="H2" t="n">
-        <v>24.31115064415008</v>
+        <v>24.31115064415001</v>
       </c>
       <c r="I2" t="n">
-        <v>91.51769903171942</v>
+        <v>91.51769903171918</v>
       </c>
       <c r="J2" t="n">
-        <v>201.47721440097</v>
+        <v>201.4772144009694</v>
       </c>
       <c r="K2" t="n">
-        <v>301.9621168071092</v>
+        <v>301.9621168071084</v>
       </c>
       <c r="L2" t="n">
-        <v>374.6107072160835</v>
+        <v>374.6107072160826</v>
       </c>
       <c r="M2" t="n">
-        <v>416.8265915337112</v>
+        <v>416.82659153371</v>
       </c>
       <c r="N2" t="n">
-        <v>423.5712815635114</v>
+        <v>423.5712815635102</v>
       </c>
       <c r="O2" t="n">
-        <v>399.9663501129788</v>
+        <v>399.9663501129777</v>
       </c>
       <c r="P2" t="n">
-        <v>341.3620262728757</v>
+        <v>341.3620262728747</v>
       </c>
       <c r="Q2" t="n">
-        <v>256.3486653605236</v>
+        <v>256.3486653605229</v>
       </c>
       <c r="R2" t="n">
-        <v>149.116105617048</v>
+        <v>149.1161056170477</v>
       </c>
       <c r="S2" t="n">
-        <v>54.09401638506728</v>
+        <v>54.09401638506714</v>
       </c>
       <c r="T2" t="n">
-        <v>10.39151099179954</v>
+        <v>10.39151099179951</v>
       </c>
       <c r="U2" t="n">
-        <v>0.1899076823172958</v>
+        <v>0.1899076823172953</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31120,49 +31120,49 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>1.270119599366208</v>
+        <v>1.270119599366204</v>
       </c>
       <c r="H3" t="n">
-        <v>12.2666813938789</v>
+        <v>12.26668139387887</v>
       </c>
       <c r="I3" t="n">
-        <v>43.72999497817865</v>
+        <v>43.72999497817852</v>
       </c>
       <c r="J3" t="n">
-        <v>119.9984486401205</v>
+        <v>119.9984486401202</v>
       </c>
       <c r="K3" t="n">
-        <v>205.0964617976564</v>
+        <v>205.0964617976559</v>
       </c>
       <c r="L3" t="n">
-        <v>275.7775033623865</v>
+        <v>275.7775033623857</v>
       </c>
       <c r="M3" t="n">
-        <v>321.8193388394114</v>
+        <v>321.8193388394105</v>
       </c>
       <c r="N3" t="n">
-        <v>330.3369391351612</v>
+        <v>330.3369391351603</v>
       </c>
       <c r="O3" t="n">
-        <v>302.1937627492047</v>
+        <v>302.1937627492038</v>
       </c>
       <c r="P3" t="n">
-        <v>242.5371364789735</v>
+        <v>242.5371364789728</v>
       </c>
       <c r="Q3" t="n">
-        <v>162.129652719097</v>
+        <v>162.1296527190965</v>
       </c>
       <c r="R3" t="n">
-        <v>78.85882916064931</v>
+        <v>78.85882916064909</v>
       </c>
       <c r="S3" t="n">
-        <v>23.59191448822757</v>
+        <v>23.59191448822751</v>
       </c>
       <c r="T3" t="n">
-        <v>5.11947329744537</v>
+        <v>5.119473297445357</v>
       </c>
       <c r="U3" t="n">
-        <v>0.08356049995830317</v>
+        <v>0.08356049995830293</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,49 +31199,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>1.064825606026027</v>
+        <v>1.064825606026024</v>
       </c>
       <c r="H4" t="n">
-        <v>9.46726766084959</v>
+        <v>9.467267660849563</v>
       </c>
       <c r="I4" t="n">
-        <v>32.02221004303725</v>
+        <v>32.02221004303716</v>
       </c>
       <c r="J4" t="n">
-        <v>75.28317034604008</v>
+        <v>75.28317034603988</v>
       </c>
       <c r="K4" t="n">
-        <v>123.7133749546602</v>
+        <v>123.7133749546598</v>
       </c>
       <c r="L4" t="n">
-        <v>158.310526917724</v>
+        <v>158.3105269177236</v>
       </c>
       <c r="M4" t="n">
-        <v>166.9162538609707</v>
+        <v>166.9162538609702</v>
       </c>
       <c r="N4" t="n">
-        <v>162.9473584203284</v>
+        <v>162.9473584203279</v>
       </c>
       <c r="O4" t="n">
-        <v>150.5082592953879</v>
+        <v>150.5082592953875</v>
       </c>
       <c r="P4" t="n">
-        <v>128.7858169324568</v>
+        <v>128.7858169324565</v>
       </c>
       <c r="Q4" t="n">
-        <v>89.16462415550666</v>
+        <v>89.16462415550642</v>
       </c>
       <c r="R4" t="n">
-        <v>47.87843134004297</v>
+        <v>47.87843134004284</v>
       </c>
       <c r="S4" t="n">
-        <v>18.55700624319902</v>
+        <v>18.55700624319897</v>
       </c>
       <c r="T4" t="n">
-        <v>4.549709407565749</v>
+        <v>4.549709407565737</v>
       </c>
       <c r="U4" t="n">
-        <v>0.05808139669232879</v>
+        <v>0.05808139669232864</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31278,49 +31278,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>2.373846028966198</v>
+        <v>2.373846028966191</v>
       </c>
       <c r="H5" t="n">
-        <v>24.31115064415008</v>
+        <v>24.31115064415001</v>
       </c>
       <c r="I5" t="n">
-        <v>91.51769903171942</v>
+        <v>91.51769903171918</v>
       </c>
       <c r="J5" t="n">
-        <v>201.47721440097</v>
+        <v>201.4772144009694</v>
       </c>
       <c r="K5" t="n">
-        <v>301.9621168071092</v>
+        <v>301.9621168071084</v>
       </c>
       <c r="L5" t="n">
-        <v>374.6107072160835</v>
+        <v>374.6107072160826</v>
       </c>
       <c r="M5" t="n">
-        <v>416.8265915337112</v>
+        <v>416.82659153371</v>
       </c>
       <c r="N5" t="n">
-        <v>423.5712815635114</v>
+        <v>423.5712815635102</v>
       </c>
       <c r="O5" t="n">
-        <v>399.9663501129788</v>
+        <v>399.9663501129777</v>
       </c>
       <c r="P5" t="n">
-        <v>341.3620262728757</v>
+        <v>341.3620262728747</v>
       </c>
       <c r="Q5" t="n">
-        <v>256.3486653605236</v>
+        <v>256.3486653605229</v>
       </c>
       <c r="R5" t="n">
-        <v>149.116105617048</v>
+        <v>149.1161056170477</v>
       </c>
       <c r="S5" t="n">
-        <v>54.09401638506728</v>
+        <v>54.09401638506714</v>
       </c>
       <c r="T5" t="n">
-        <v>10.39151099179954</v>
+        <v>10.39151099179951</v>
       </c>
       <c r="U5" t="n">
-        <v>0.1899076823172958</v>
+        <v>0.1899076823172953</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31357,49 +31357,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>1.270119599366208</v>
+        <v>1.270119599366204</v>
       </c>
       <c r="H6" t="n">
-        <v>12.2666813938789</v>
+        <v>12.26668139387887</v>
       </c>
       <c r="I6" t="n">
-        <v>43.72999497817865</v>
+        <v>43.72999497817852</v>
       </c>
       <c r="J6" t="n">
-        <v>119.9984486401205</v>
+        <v>119.9984486401202</v>
       </c>
       <c r="K6" t="n">
-        <v>205.0964617976564</v>
+        <v>205.0964617976559</v>
       </c>
       <c r="L6" t="n">
-        <v>275.7775033623865</v>
+        <v>275.7775033623857</v>
       </c>
       <c r="M6" t="n">
-        <v>321.8193388394114</v>
+        <v>321.8193388394105</v>
       </c>
       <c r="N6" t="n">
-        <v>330.3369391351612</v>
+        <v>330.3369391351603</v>
       </c>
       <c r="O6" t="n">
-        <v>302.1937627492047</v>
+        <v>302.1937627492038</v>
       </c>
       <c r="P6" t="n">
-        <v>242.5371364789735</v>
+        <v>242.5371364789728</v>
       </c>
       <c r="Q6" t="n">
-        <v>162.129652719097</v>
+        <v>162.1296527190965</v>
       </c>
       <c r="R6" t="n">
-        <v>78.85882916064931</v>
+        <v>78.85882916064909</v>
       </c>
       <c r="S6" t="n">
-        <v>23.59191448822757</v>
+        <v>23.59191448822751</v>
       </c>
       <c r="T6" t="n">
-        <v>5.11947329744537</v>
+        <v>5.119473297445357</v>
       </c>
       <c r="U6" t="n">
-        <v>0.08356049995830317</v>
+        <v>0.08356049995830293</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,49 +31436,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1.064825606026027</v>
+        <v>1.064825606026024</v>
       </c>
       <c r="H7" t="n">
-        <v>9.46726766084959</v>
+        <v>9.467267660849563</v>
       </c>
       <c r="I7" t="n">
-        <v>32.02221004303725</v>
+        <v>32.02221004303716</v>
       </c>
       <c r="J7" t="n">
-        <v>75.28317034604008</v>
+        <v>75.28317034603988</v>
       </c>
       <c r="K7" t="n">
-        <v>123.7133749546602</v>
+        <v>123.7133749546598</v>
       </c>
       <c r="L7" t="n">
-        <v>158.310526917724</v>
+        <v>158.3105269177236</v>
       </c>
       <c r="M7" t="n">
-        <v>166.9162538609707</v>
+        <v>166.9162538609702</v>
       </c>
       <c r="N7" t="n">
-        <v>162.9473584203284</v>
+        <v>162.9473584203279</v>
       </c>
       <c r="O7" t="n">
-        <v>150.5082592953879</v>
+        <v>150.5082592953875</v>
       </c>
       <c r="P7" t="n">
-        <v>128.7858169324568</v>
+        <v>128.7858169324565</v>
       </c>
       <c r="Q7" t="n">
-        <v>89.16462415550666</v>
+        <v>89.16462415550642</v>
       </c>
       <c r="R7" t="n">
-        <v>47.87843134004297</v>
+        <v>47.87843134004284</v>
       </c>
       <c r="S7" t="n">
-        <v>18.55700624319902</v>
+        <v>18.55700624319897</v>
       </c>
       <c r="T7" t="n">
-        <v>4.549709407565749</v>
+        <v>4.549709407565737</v>
       </c>
       <c r="U7" t="n">
-        <v>0.05808139669232879</v>
+        <v>0.05808139669232864</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31837,7 +31837,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I12" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J12" t="n">
         <v>277.9958514420755</v>
@@ -31855,7 +31855,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O12" t="n">
-        <v>398.7616643558013</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P12" t="n">
         <v>133.9744074143302</v>
@@ -32074,7 +32074,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J15" t="n">
         <v>277.9958514420755</v>
@@ -32089,10 +32089,10 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N15" t="n">
-        <v>463.9598929192557</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P15" t="n">
         <v>133.9744074143302</v>
@@ -32554,7 +32554,7 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>173.8200325543357</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
         <v>638.8832749473072</v>
@@ -32566,7 +32566,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P21" t="n">
         <v>133.9744074143302</v>
@@ -33174,7 +33174,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H29" t="n">
         <v>56.32071997135341</v>
@@ -33186,31 +33186,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L29" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S29" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T29" t="n">
         <v>24.07361910651528</v>
@@ -33253,10 +33253,10 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H30" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I30" t="n">
         <v>101.3076196007749</v>
@@ -33265,16 +33265,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L30" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O30" t="n">
         <v>398.7616643558013</v>
@@ -33289,13 +33289,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33335,25 +33335,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O31" t="n">
         <v>348.6767717920058</v>
@@ -33362,19 +33362,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33411,49 +33411,49 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H32" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135338</v>
       </c>
       <c r="I32" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J32" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817573</v>
       </c>
       <c r="L32" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162558</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175671</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159422</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460025</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236505</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669223</v>
+        <v>593.873223366922</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043724</v>
       </c>
       <c r="S32" t="n">
         <v>125.31755462929</v>
       </c>
       <c r="T32" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U32" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078744</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33490,31 +33490,31 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.942437868659449</v>
+        <v>2.942437868659448</v>
       </c>
       <c r="H33" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521099</v>
       </c>
       <c r="I33" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J33" t="n">
-        <v>277.9958514420755</v>
+        <v>277.9958514420754</v>
       </c>
       <c r="K33" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422584</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473072</v>
+        <v>638.883274947307</v>
       </c>
       <c r="M33" t="n">
-        <v>446.0127311990643</v>
+        <v>745.5466476862118</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071782</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558027</v>
       </c>
       <c r="P33" t="n">
         <v>133.9744074143302</v>
@@ -33526,10 +33526,10 @@
         <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T33" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U33" t="n">
         <v>0.1935814387275954</v>
@@ -33575,28 +33575,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869272</v>
       </c>
       <c r="J34" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106787</v>
       </c>
       <c r="O34" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P34" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417313</v>
       </c>
       <c r="Q34" t="n">
         <v>206.5643005515927</v>
@@ -33605,7 +33605,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
@@ -33648,49 +33648,49 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H35" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135338</v>
       </c>
       <c r="I35" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J35" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817573</v>
       </c>
       <c r="L35" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162558</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175671</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159422</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460025</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236505</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669223</v>
+        <v>593.873223366922</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043724</v>
       </c>
       <c r="S35" t="n">
         <v>125.31755462929</v>
       </c>
       <c r="T35" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U35" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078744</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33727,31 +33727,31 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.942437868659449</v>
+        <v>2.942437868659448</v>
       </c>
       <c r="H36" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521099</v>
       </c>
       <c r="I36" t="n">
         <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
-        <v>277.9958514420755</v>
+        <v>277.9958514420754</v>
       </c>
       <c r="K36" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422584</v>
       </c>
       <c r="L36" t="n">
-        <v>638.8832749473072</v>
+        <v>638.883274947307</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862118</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071782</v>
       </c>
       <c r="O36" t="n">
-        <v>398.7616643558013</v>
+        <v>398.7616643558027</v>
       </c>
       <c r="P36" t="n">
         <v>133.9744074143302</v>
@@ -33763,10 +33763,10 @@
         <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T36" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U36" t="n">
         <v>0.1935814387275954</v>
@@ -33812,28 +33812,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869272</v>
       </c>
       <c r="J37" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106787</v>
       </c>
       <c r="O37" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P37" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417313</v>
       </c>
       <c r="Q37" t="n">
         <v>206.5643005515927</v>
@@ -33842,7 +33842,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
@@ -33885,49 +33885,49 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H38" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135338</v>
       </c>
       <c r="I38" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J38" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817573</v>
       </c>
       <c r="L38" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162558</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175671</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159422</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460025</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236505</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669223</v>
+        <v>593.873223366922</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043724</v>
       </c>
       <c r="S38" t="n">
         <v>125.31755462929</v>
       </c>
       <c r="T38" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U38" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078744</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33964,31 +33964,31 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.942437868659449</v>
+        <v>2.942437868659448</v>
       </c>
       <c r="H39" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521099</v>
       </c>
       <c r="I39" t="n">
         <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
-        <v>277.9958514420755</v>
+        <v>277.9958514420754</v>
       </c>
       <c r="K39" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422584</v>
       </c>
       <c r="L39" t="n">
-        <v>638.8832749473072</v>
+        <v>638.883274947307</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862118</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071782</v>
       </c>
       <c r="O39" t="n">
-        <v>398.7616643558013</v>
+        <v>398.7616643558027</v>
       </c>
       <c r="P39" t="n">
         <v>133.9744074143302</v>
@@ -34000,10 +34000,10 @@
         <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T39" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U39" t="n">
         <v>0.1935814387275954</v>
@@ -34049,28 +34049,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869272</v>
       </c>
       <c r="J40" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106787</v>
       </c>
       <c r="O40" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P40" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417313</v>
       </c>
       <c r="Q40" t="n">
         <v>206.5643005515927</v>
@@ -34079,7 +34079,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
@@ -34122,49 +34122,49 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H41" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135338</v>
       </c>
       <c r="I41" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J41" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817573</v>
       </c>
       <c r="L41" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162558</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175671</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159422</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460025</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236505</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669223</v>
+        <v>593.873223366922</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043724</v>
       </c>
       <c r="S41" t="n">
         <v>125.31755462929</v>
       </c>
       <c r="T41" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U41" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078744</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34201,31 +34201,31 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.942437868659449</v>
+        <v>2.942437868659448</v>
       </c>
       <c r="H42" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521099</v>
       </c>
       <c r="I42" t="n">
         <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
-        <v>277.9958514420755</v>
+        <v>277.9958514420754</v>
       </c>
       <c r="K42" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422584</v>
       </c>
       <c r="L42" t="n">
-        <v>638.8832749473072</v>
+        <v>638.883274947307</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862118</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071782</v>
       </c>
       <c r="O42" t="n">
-        <v>398.7616643558013</v>
+        <v>398.7616643558027</v>
       </c>
       <c r="P42" t="n">
         <v>133.9744074143302</v>
@@ -34237,10 +34237,10 @@
         <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T42" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U42" t="n">
         <v>0.1935814387275954</v>
@@ -34286,28 +34286,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869272</v>
       </c>
       <c r="J43" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106787</v>
       </c>
       <c r="O43" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P43" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417313</v>
       </c>
       <c r="Q43" t="n">
         <v>206.5643005515927</v>
@@ -34316,7 +34316,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
@@ -34359,49 +34359,49 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H44" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135338</v>
       </c>
       <c r="I44" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J44" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817573</v>
       </c>
       <c r="L44" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162558</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175671</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159422</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460025</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236505</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669223</v>
+        <v>593.873223366922</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043724</v>
       </c>
       <c r="S44" t="n">
         <v>125.31755462929</v>
       </c>
       <c r="T44" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U44" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078744</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34438,34 +34438,34 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.942437868659449</v>
+        <v>2.942437868659448</v>
       </c>
       <c r="H45" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521099</v>
       </c>
       <c r="I45" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J45" t="n">
-        <v>277.9958514420755</v>
+        <v>277.9958514420754</v>
       </c>
       <c r="K45" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422584</v>
       </c>
       <c r="L45" t="n">
-        <v>638.8832749473072</v>
+        <v>638.883274947307</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862121</v>
+        <v>652.0478969157709</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O45" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437241</v>
       </c>
       <c r="P45" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214697</v>
       </c>
       <c r="Q45" t="n">
         <v>139.9817740860215</v>
@@ -34474,10 +34474,10 @@
         <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T45" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U45" t="n">
         <v>0.1935814387275954</v>
@@ -34523,28 +34523,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869272</v>
       </c>
       <c r="J46" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106787</v>
       </c>
       <c r="O46" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P46" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417313</v>
       </c>
       <c r="Q46" t="n">
         <v>206.5643005515927</v>
@@ -34553,7 +34553,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
@@ -34698,28 +34698,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>20.43130987428373</v>
+        <v>20.43130987428316</v>
       </c>
       <c r="K2" t="n">
-        <v>81.87226576212868</v>
+        <v>406.0176783332926</v>
       </c>
       <c r="L2" t="n">
-        <v>556.5055067965468</v>
+        <v>556.5055067965458</v>
       </c>
       <c r="M2" t="n">
-        <v>635.993891799271</v>
+        <v>635.9938917992698</v>
       </c>
       <c r="N2" t="n">
-        <v>631.5051423789046</v>
+        <v>194.1582179669193</v>
       </c>
       <c r="O2" t="n">
-        <v>538.7989603445037</v>
+        <v>550.6683199540363</v>
       </c>
       <c r="P2" t="n">
-        <v>110.1290305176062</v>
+        <v>211.4611827488987</v>
       </c>
       <c r="Q2" t="n">
-        <v>34.04297548607414</v>
+        <v>34.04297548607346</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34777,28 +34777,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>119.2518573138624</v>
       </c>
       <c r="K3" t="n">
-        <v>67.25502282329745</v>
+        <v>67.25502282329688</v>
       </c>
       <c r="L3" t="n">
-        <v>508.0634688859715</v>
+        <v>508.0634688859707</v>
       </c>
       <c r="M3" t="n">
-        <v>645.390368667393</v>
+        <v>179.6853049173922</v>
       </c>
       <c r="N3" t="n">
-        <v>385.9370086635117</v>
+        <v>522.3129273638046</v>
       </c>
       <c r="O3" t="n">
-        <v>553.4598375814898</v>
+        <v>553.459837581489</v>
       </c>
       <c r="P3" t="n">
-        <v>427.0254977045804</v>
+        <v>427.0254977045797</v>
       </c>
       <c r="Q3" t="n">
-        <v>22.14787863307546</v>
+        <v>232.2251663689241</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34859,25 +34859,25 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>101.4438831287773</v>
+        <v>101.443883128777</v>
       </c>
       <c r="L4" t="n">
-        <v>185.9005521780402</v>
+        <v>185.9005521780397</v>
       </c>
       <c r="M4" t="n">
-        <v>206.5001308228113</v>
+        <v>206.5001308228108</v>
       </c>
       <c r="N4" t="n">
-        <v>207.0795307995569</v>
+        <v>207.0795307995565</v>
       </c>
       <c r="O4" t="n">
-        <v>175.0933872094276</v>
+        <v>175.0933872094272</v>
       </c>
       <c r="P4" t="n">
-        <v>126.0643761973503</v>
+        <v>126.06437619735</v>
       </c>
       <c r="Q4" t="n">
-        <v>3.002580903812273</v>
+        <v>3.002580903812031</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34935,28 +34935,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>20.43130987428373</v>
+        <v>20.43130987428316</v>
       </c>
       <c r="K5" t="n">
-        <v>406.0176783332934</v>
+        <v>81.87226576212782</v>
       </c>
       <c r="L5" t="n">
-        <v>556.5055067965468</v>
+        <v>544.6361471870198</v>
       </c>
       <c r="M5" t="n">
-        <v>186.4803583064384</v>
+        <v>635.9938917992698</v>
       </c>
       <c r="N5" t="n">
-        <v>423.2051955195558</v>
+        <v>631.5051423789034</v>
       </c>
       <c r="O5" t="n">
-        <v>550.6683199540374</v>
+        <v>550.6683199540363</v>
       </c>
       <c r="P5" t="n">
-        <v>431.9277386890888</v>
+        <v>110.1290305176052</v>
       </c>
       <c r="Q5" t="n">
-        <v>34.04297548607414</v>
+        <v>34.04297548607346</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35017,25 +35017,25 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>67.25502282329745</v>
+        <v>331.7202598358755</v>
       </c>
       <c r="L6" t="n">
-        <v>508.0634688859715</v>
+        <v>508.0634688859707</v>
       </c>
       <c r="M6" t="n">
-        <v>645.390368667393</v>
+        <v>645.3903686673921</v>
       </c>
       <c r="N6" t="n">
-        <v>658.9760949310524</v>
+        <v>198.995227051827</v>
       </c>
       <c r="O6" t="n">
-        <v>553.4598375814898</v>
+        <v>553.459837581489</v>
       </c>
       <c r="P6" t="n">
-        <v>153.98641143704</v>
+        <v>349.5020423036901</v>
       </c>
       <c r="Q6" t="n">
-        <v>22.14787863307546</v>
+        <v>22.14787863307501</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35096,25 +35096,25 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>101.4438831287773</v>
+        <v>101.443883128777</v>
       </c>
       <c r="L7" t="n">
-        <v>185.9005521780402</v>
+        <v>185.9005521780397</v>
       </c>
       <c r="M7" t="n">
-        <v>206.5001308228113</v>
+        <v>206.5001308228108</v>
       </c>
       <c r="N7" t="n">
-        <v>207.0795307995569</v>
+        <v>207.0795307995565</v>
       </c>
       <c r="O7" t="n">
-        <v>175.0933872094276</v>
+        <v>175.0933872094272</v>
       </c>
       <c r="P7" t="n">
-        <v>126.0643761973503</v>
+        <v>126.06437619735</v>
       </c>
       <c r="Q7" t="n">
-        <v>3.002580903812273</v>
+        <v>3.002580903812031</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35409,7 +35409,7 @@
         <v>1.539690236317256</v>
       </c>
       <c r="J11" t="n">
-        <v>285.7087110396425</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
         <v>479.454324036777</v>
@@ -35418,7 +35418,7 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902952</v>
       </c>
       <c r="N11" t="n">
         <v>751.8584478193516</v>
@@ -35485,7 +35485,7 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
         <v>151.1582247754088</v>
@@ -35503,7 +35503,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O12" t="n">
-        <v>256.1654199113569</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
@@ -35722,7 +35722,7 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
         <v>151.1582247754088</v>
@@ -35737,10 +35737,10 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>332.6181808359224</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O15" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
@@ -35892,7 +35892,7 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902952</v>
       </c>
       <c r="N17" t="n">
         <v>751.8584478193516</v>
@@ -36129,7 +36129,7 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M20" t="n">
-        <v>735.3001107902952</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N20" t="n">
         <v>751.8584478193516</v>
@@ -36202,7 +36202,7 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
-        <v>35.97859357997668</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
         <v>500.328895167433</v>
@@ -36214,7 +36214,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
@@ -36357,7 +36357,7 @@
         <v>1.539690236317256</v>
       </c>
       <c r="J23" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396425</v>
       </c>
       <c r="K23" t="n">
         <v>479.454324036777</v>
@@ -36773,7 +36773,7 @@
         <v>295.631773306625</v>
       </c>
       <c r="Q28" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572999021</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36828,34 +36828,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L29" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M29" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O29" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36907,7 +36907,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J30" t="n">
         <v>151.1582247754088</v>
@@ -36916,13 +36916,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M30" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O30" t="n">
         <v>256.1654199113569</v>
@@ -36989,25 +36989,25 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K31" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N31" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P31" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066288</v>
       </c>
       <c r="Q31" t="n">
         <v>120.4022572998984</v>
@@ -37065,34 +37065,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317199</v>
       </c>
       <c r="J32" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396418</v>
       </c>
       <c r="K32" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367768</v>
       </c>
       <c r="L32" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462685</v>
       </c>
       <c r="M32" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902944</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193513</v>
       </c>
       <c r="O32" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243157</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683809</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924756</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902403</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37144,25 +37144,25 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>1.785239600774872</v>
       </c>
       <c r="J33" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754087</v>
       </c>
       <c r="K33" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678994</v>
       </c>
       <c r="L33" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674328</v>
       </c>
       <c r="M33" t="n">
-        <v>303.8786972770459</v>
+        <v>603.4126137641936</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238449</v>
       </c>
       <c r="O33" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113583</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
@@ -37226,28 +37226,28 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295336</v>
+        <v>81.0464832629533</v>
       </c>
       <c r="K34" t="n">
-        <v>264.3325884096349</v>
+        <v>264.3325884096348</v>
       </c>
       <c r="L34" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191313</v>
       </c>
       <c r="M34" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010449</v>
       </c>
       <c r="N34" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P34" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066248</v>
       </c>
       <c r="Q34" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37302,34 +37302,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317199</v>
       </c>
       <c r="J35" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396418</v>
       </c>
       <c r="K35" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367768</v>
       </c>
       <c r="L35" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462685</v>
       </c>
       <c r="M35" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902944</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193513</v>
       </c>
       <c r="O35" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243157</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683809</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924725</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902403</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37381,25 +37381,25 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774872</v>
       </c>
       <c r="J36" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754087</v>
       </c>
       <c r="K36" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678994</v>
       </c>
       <c r="L36" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674328</v>
       </c>
       <c r="M36" t="n">
-        <v>603.4126137641938</v>
+        <v>603.4126137641936</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238449</v>
       </c>
       <c r="O36" t="n">
-        <v>256.1654199113569</v>
+        <v>256.1654199113583</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
@@ -37463,28 +37463,28 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295336</v>
+        <v>81.0464832629533</v>
       </c>
       <c r="K37" t="n">
-        <v>264.3325884096349</v>
+        <v>264.3325884096348</v>
       </c>
       <c r="L37" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191313</v>
       </c>
       <c r="M37" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010449</v>
       </c>
       <c r="N37" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P37" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066248</v>
       </c>
       <c r="Q37" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37539,34 +37539,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317199</v>
       </c>
       <c r="J38" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396418</v>
       </c>
       <c r="K38" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367768</v>
       </c>
       <c r="L38" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462685</v>
       </c>
       <c r="M38" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902966</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193513</v>
       </c>
       <c r="O38" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243157</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683809</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924725</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902403</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37618,25 +37618,25 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774872</v>
       </c>
       <c r="J39" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754087</v>
       </c>
       <c r="K39" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678994</v>
       </c>
       <c r="L39" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674328</v>
       </c>
       <c r="M39" t="n">
-        <v>603.4126137641938</v>
+        <v>603.4126137641936</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238449</v>
       </c>
       <c r="O39" t="n">
-        <v>256.1654199113569</v>
+        <v>256.1654199113583</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
@@ -37700,28 +37700,28 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295336</v>
+        <v>81.0464832629533</v>
       </c>
       <c r="K40" t="n">
-        <v>264.3325884096349</v>
+        <v>264.3325884096348</v>
       </c>
       <c r="L40" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191313</v>
       </c>
       <c r="M40" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010449</v>
       </c>
       <c r="N40" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P40" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066248</v>
       </c>
       <c r="Q40" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37776,34 +37776,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317199</v>
       </c>
       <c r="J41" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396418</v>
       </c>
       <c r="K41" t="n">
-        <v>479.4543240367776</v>
+        <v>479.4543240367768</v>
       </c>
       <c r="L41" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462685</v>
       </c>
       <c r="M41" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902944</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193513</v>
       </c>
       <c r="O41" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243157</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683809</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924725</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902418</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37855,25 +37855,25 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774872</v>
       </c>
       <c r="J42" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754087</v>
       </c>
       <c r="K42" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678994</v>
       </c>
       <c r="L42" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674328</v>
       </c>
       <c r="M42" t="n">
-        <v>603.4126137641938</v>
+        <v>603.4126137641936</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238449</v>
       </c>
       <c r="O42" t="n">
-        <v>256.1654199113569</v>
+        <v>256.1654199113583</v>
       </c>
       <c r="P42" t="n">
         <v>0</v>
@@ -37937,28 +37937,28 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295336</v>
+        <v>81.0464832629533</v>
       </c>
       <c r="K43" t="n">
-        <v>264.3325884096349</v>
+        <v>264.3325884096348</v>
       </c>
       <c r="L43" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191313</v>
       </c>
       <c r="M43" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010449</v>
       </c>
       <c r="N43" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O43" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P43" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066248</v>
       </c>
       <c r="Q43" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38013,34 +38013,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317199</v>
       </c>
       <c r="J44" t="n">
-        <v>285.708711039642</v>
+        <v>285.708711039644</v>
       </c>
       <c r="K44" t="n">
-        <v>479.4543240367776</v>
+        <v>479.4543240367768</v>
       </c>
       <c r="L44" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462685</v>
       </c>
       <c r="M44" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902944</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193513</v>
       </c>
       <c r="O44" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243157</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683809</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924725</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902403</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38092,28 +38092,28 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754087</v>
       </c>
       <c r="K45" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678994</v>
       </c>
       <c r="L45" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674328</v>
       </c>
       <c r="M45" t="n">
-        <v>603.4126137641938</v>
+        <v>509.9138629937526</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>256.1654199113569</v>
+        <v>557.4845759992796</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>427.9021712071394</v>
       </c>
       <c r="Q45" t="n">
         <v>0</v>
@@ -38174,28 +38174,28 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.04648326295336</v>
+        <v>81.0464832629533</v>
       </c>
       <c r="K46" t="n">
-        <v>264.3325884096349</v>
+        <v>264.3325884096348</v>
       </c>
       <c r="L46" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191313</v>
       </c>
       <c r="M46" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010449</v>
       </c>
       <c r="N46" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O46" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P46" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066248</v>
       </c>
       <c r="Q46" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
